--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{EE89E0B6-2EF8-485E-AB49-15CBEF5801DC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{56FBFC1A-DB4D-4179-B902-135381CD1D51}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}" yWindow="-120"/>
+    <workbookView activeTab="1" windowHeight="14730" windowWidth="16665" xWindow="7950" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}" yWindow="2670"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" r:id="rId1" sheetId="1"/>
+    <sheet name="AuthCapture" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="59">
   <si>
     <t>Result</t>
   </si>
@@ -134,21 +135,6 @@
     <t>5146312200000035</t>
   </si>
   <si>
-    <t>Mon Oct 03 22:15:00 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Oct 03 22:15:19 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Oct 03 22:15:36 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Oct 03 22:15:52 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Oct 03 22:16:10 EDT 2022</t>
-  </si>
-  <si>
     <t>health</t>
   </si>
   <si>
@@ -158,22 +144,76 @@
     <t>pwd3136</t>
   </si>
   <si>
+    <t>Mon Oct 03 22:22:36 EDT 2022</t>
+  </si>
+  <si>
+    <t>Mon Oct 03 22:22:51 EDT 2022</t>
+  </si>
+  <si>
+    <t>Mon Oct 03 22:23:06 EDT 2022</t>
+  </si>
+  <si>
+    <t>Mon Oct 03 22:23:20 EDT 2022</t>
+  </si>
+  <si>
+    <t>Mon Oct 03 22:23:35 EDT 2022</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Mon Oct 03 22:22:36 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Oct 03 22:22:51 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Oct 03 22:23:06 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Oct 03 22:23:20 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Oct 03 22:23:35 EDT 2022</t>
+    <t>Tue Oct 04 20:55:15 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 20:55:42 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 20:56:08 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 20:56:33 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 20:57:01 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 20:59:12 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 20:59:27 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 20:59:40 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 20:59:53 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 21:00:06 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 21:02:26 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 21:02:41 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 21:04:53 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 21:05:17 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 21:05:40 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 21:06:02 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 04 21:06:25 EDT 2022</t>
   </si>
 </sst>
 </file>
@@ -556,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3BF19-5985-4984-B3CC-B3E33E12951F}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +670,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -677,7 +717,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -724,7 +764,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -771,7 +811,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -792,7 +832,7 @@
         <v>2435</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2">
         <v>11111111</v>
@@ -818,7 +858,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -839,10 +879,10 @@
         <v>3136</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>17</v>
@@ -864,4 +904,317 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77641590-759F-4E9F-886E-0EE016894C97}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>234</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>234</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2435</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>12</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>581</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3136</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2">
+        <v>12</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="74">
   <si>
     <t>Result</t>
   </si>
@@ -214,6 +214,51 @@
   </si>
   <si>
     <t>Tue Oct 04 21:06:25 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 07 14:55:26 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 07 14:55:52 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 07 14:56:16 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 07 14:56:39 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 07 14:57:06 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 21 13:51:30 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 21 13:51:46 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 21 13:52:01 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 21 13:52:15 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 21 13:52:30 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 21 13:52:47 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 21 13:53:11 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 21 13:53:34 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 21 13:53:57 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Oct 21 13:54:23 EDT 2022</t>
   </si>
 </sst>
 </file>
@@ -670,7 +715,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -717,7 +762,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -764,7 +809,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -811,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -858,7 +903,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -984,7 +1029,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1031,7 +1076,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1078,7 +1123,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1125,7 +1170,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1172,7 +1217,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>

--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="84">
   <si>
     <t>Result</t>
   </si>
@@ -259,6 +259,36 @@
   </si>
   <si>
     <t>Fri Oct 21 13:54:23 EDT 2022</t>
+  </si>
+  <si>
+    <t>Thu Oct 27 10:04:04 EDT 2022</t>
+  </si>
+  <si>
+    <t>Thu Oct 27 10:04:27 EDT 2022</t>
+  </si>
+  <si>
+    <t>Thu Oct 27 10:04:43 EDT 2022</t>
+  </si>
+  <si>
+    <t>Thu Oct 27 10:05:01 EDT 2022</t>
+  </si>
+  <si>
+    <t>Thu Oct 27 10:05:17 EDT 2022</t>
+  </si>
+  <si>
+    <t>Thu Oct 27 10:05:34 EDT 2022</t>
+  </si>
+  <si>
+    <t>Thu Oct 27 10:05:59 EDT 2022</t>
+  </si>
+  <si>
+    <t>Thu Oct 27 10:06:23 EDT 2022</t>
+  </si>
+  <si>
+    <t>Thu Oct 27 10:06:47 EDT 2022</t>
+  </si>
+  <si>
+    <t>Thu Oct 27 10:07:11 EDT 2022</t>
   </si>
 </sst>
 </file>
@@ -715,7 +745,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -762,7 +792,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -809,7 +839,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -856,7 +886,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -903,7 +933,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1029,7 +1059,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1076,7 +1106,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1123,7 +1153,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1170,7 +1200,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1217,7 +1247,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>

--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{56FBFC1A-DB4D-4179-B902-135381CD1D51}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFFFE5A-29E3-4FCA-B9C1-854334822B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="14730" windowWidth="16665" xWindow="7950" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}" yWindow="2670"/>
+    <workbookView xWindow="3030" yWindow="2085" windowWidth="23250" windowHeight="14730" activeTab="4" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}"/>
   </bookViews>
   <sheets>
-    <sheet name="Auth" r:id="rId1" sheetId="1"/>
-    <sheet name="AuthCapture" r:id="rId2" sheetId="2"/>
+    <sheet name="Auth" sheetId="1" r:id="rId1"/>
+    <sheet name="AuthCapture" sheetId="2" r:id="rId2"/>
+    <sheet name="Sale" sheetId="3" r:id="rId3"/>
+    <sheet name="Sale-Void" sheetId="4" r:id="rId4"/>
+    <sheet name="Sale-Credit" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="55">
   <si>
     <t>Result</t>
   </si>
@@ -144,158 +147,70 @@
     <t>pwd3136</t>
   </si>
   <si>
-    <t>Mon Oct 03 22:22:36 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Oct 03 22:22:51 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Oct 03 22:23:06 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Oct 03 22:23:20 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Oct 03 22:23:35 EDT 2022</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Tue Oct 04 20:55:15 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 20:55:42 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 20:56:08 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 20:56:33 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 20:57:01 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 20:59:12 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 20:59:27 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 20:59:40 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 20:59:53 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 21:00:06 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 21:02:26 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 21:02:41 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 21:04:53 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 21:05:17 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 21:05:40 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 21:06:02 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 04 21:06:25 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 07 14:55:26 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 07 14:55:52 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 07 14:56:16 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 07 14:56:39 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 07 14:57:06 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 21 13:51:30 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 21 13:51:46 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 21 13:52:01 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 21 13:52:15 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 21 13:52:30 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 21 13:52:47 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 21 13:53:11 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 21 13:53:34 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 21 13:53:57 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Oct 21 13:54:23 EDT 2022</t>
-  </si>
-  <si>
-    <t>Thu Oct 27 10:04:04 EDT 2022</t>
-  </si>
-  <si>
-    <t>Thu Oct 27 10:04:27 EDT 2022</t>
-  </si>
-  <si>
-    <t>Thu Oct 27 10:04:43 EDT 2022</t>
-  </si>
-  <si>
-    <t>Thu Oct 27 10:05:01 EDT 2022</t>
-  </si>
-  <si>
-    <t>Thu Oct 27 10:05:17 EDT 2022</t>
-  </si>
-  <si>
-    <t>Thu Oct 27 10:05:34 EDT 2022</t>
-  </si>
-  <si>
-    <t>Thu Oct 27 10:05:59 EDT 2022</t>
-  </si>
-  <si>
-    <t>Thu Oct 27 10:06:23 EDT 2022</t>
-  </si>
-  <si>
-    <t>Thu Oct 27 10:06:47 EDT 2022</t>
-  </si>
-  <si>
-    <t>Thu Oct 27 10:07:11 EDT 2022</t>
+    <t>Wed Dec 14 21:21:53 EST 2022</t>
+  </si>
+  <si>
+    <t>Wed Dec 14 21:22:19 EST 2022</t>
+  </si>
+  <si>
+    <t>Wed Dec 14 21:22:40 EST 2022</t>
+  </si>
+  <si>
+    <t>Wed Dec 14 21:23:01 EST 2022</t>
+  </si>
+  <si>
+    <t>Wed Dec 14 21:23:25 EST 2022</t>
+  </si>
+  <si>
+    <t>Fri Dec 16 17:35:11 EST 2022</t>
+  </si>
+  <si>
+    <t>Fri Dec 16 17:35:40 EST 2022</t>
+  </si>
+  <si>
+    <t>Fri Dec 16 17:36:09 EST 2022</t>
+  </si>
+  <si>
+    <t>Fri Dec 16 17:36:37 EST 2022</t>
+  </si>
+  <si>
+    <t>Fri Dec 16 17:37:12 EST 2022</t>
+  </si>
+  <si>
+    <t>Thu Jan 12 15:54:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 12 15:54:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 12 15:54:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 12 15:55:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 12 16:10:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 12 20:03:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 12 20:04:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 12 20:05:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 12 20:05:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 12 20:06:07 EST 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,23 +259,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -377,10 +292,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -415,7 +330,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -467,7 +382,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -578,21 +493,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -609,7 +524,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -661,15 +576,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3BF19-5985-4984-B3CC-B3E33E12951F}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3BF19-5985-4984-B3CC-B3E33E12951F}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -677,20 +592,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -745,7 +660,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -792,7 +707,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -839,7 +754,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -886,7 +801,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -933,7 +848,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -976,35 +891,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77641590-759F-4E9F-886E-0EE016894C97}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77641590-759F-4E9F-886E-0EE016894C97}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1059,7 +977,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1106,7 +1024,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1153,7 +1071,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1200,7 +1118,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1247,7 +1165,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1290,6 +1208,928 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F862F746-9284-4D5F-8449-DC04488EA2C6}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>234</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>234</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2435</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>12</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>581</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3136</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2">
+        <v>12</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD14A431-43B3-4E34-B368-8DDA4A423BE8}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>234</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>234</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2435</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>12</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>581</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3136</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2">
+        <v>12</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8FDEE7-E2F6-498C-8E90-D24ED0C44AC2}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>234</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>234</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2435</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>12</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>581</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3136</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2">
+        <v>12</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFFFE5A-29E3-4FCA-B9C1-854334822B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{0D2AC192-4148-41A0-B4A4-8EFFCC7224EC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="2085" windowWidth="23250" windowHeight="14730" activeTab="4" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}"/>
+    <workbookView activeTab="12" firstSheet="6" windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Auth" sheetId="1" r:id="rId1"/>
-    <sheet name="AuthCapture" sheetId="2" r:id="rId2"/>
-    <sheet name="Sale" sheetId="3" r:id="rId3"/>
-    <sheet name="Sale-Void" sheetId="4" r:id="rId4"/>
-    <sheet name="Sale-Credit" sheetId="5" r:id="rId5"/>
+    <sheet name="Auth" r:id="rId1" sheetId="1"/>
+    <sheet name="AuthCapture" r:id="rId2" sheetId="2"/>
+    <sheet name="Sale" r:id="rId3" sheetId="3"/>
+    <sheet name="Sale-Void" r:id="rId4" sheetId="4"/>
+    <sheet name="Sale-Credit" r:id="rId5" sheetId="5"/>
+    <sheet name="Sale-Unencrypted" r:id="rId6" sheetId="6"/>
+    <sheet name="Sale-ZeroDollar" r:id="rId7" sheetId="7"/>
+    <sheet name="Sale-Void-NoTranxID" r:id="rId8" sheetId="8"/>
+    <sheet name="Sale-Credit-Void" r:id="rId9" sheetId="9"/>
+    <sheet name="Auth-Cap-Void" r:id="rId10" sheetId="10"/>
+    <sheet name="Auth-Cap-Credit" r:id="rId11" sheetId="11"/>
+    <sheet name="Sale-Encrypted" r:id="rId12" sheetId="12"/>
+    <sheet name="Sale-MRF" r:id="rId13" sheetId="13"/>
+    <sheet name="Auth-MRF" r:id="rId14" sheetId="14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="245">
   <si>
     <t>Result</t>
   </si>
@@ -162,12 +171,6 @@
     <t>Wed Dec 14 21:23:25 EST 2022</t>
   </si>
   <si>
-    <t>Fri Dec 16 17:35:11 EST 2022</t>
-  </si>
-  <si>
-    <t>Fri Dec 16 17:35:40 EST 2022</t>
-  </si>
-  <si>
     <t>Fri Dec 16 17:36:09 EST 2022</t>
   </si>
   <si>
@@ -205,12 +208,589 @@
   </si>
   <si>
     <t>Thu Jan 12 20:06:07 EST 2023</t>
+  </si>
+  <si>
+    <t>TrackData</t>
+  </si>
+  <si>
+    <t>%B5567080011582646^AHMED/IMTIAZ              ^2303201090200000000000354000015?;5567080011582646=23032010902035400015?</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 12:07:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 12:07:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 12:14:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 12:15:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 12:15:25 EST 2023</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 13:30:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 13:31:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 13:31:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 13:31:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 13:32:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 13:40:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 13:41:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 13:41:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 13:42:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 13:43:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 13:55:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 13:56:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 13:57:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 13:57:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 13:58:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 15:02:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 15:03:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 15:04:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 15:04:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 15:05:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 15:16:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 15:17:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 15:17:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 15:18:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 15:19:25 EST 2023</t>
+  </si>
+  <si>
+    <t>SlotNumber</t>
+  </si>
+  <si>
+    <t>KSN</t>
+  </si>
+  <si>
+    <t>FFFF7381390003600057</t>
+  </si>
+  <si>
+    <t>0EAA7F5CE9E697BBCD6997F6C0FC33DCD955675EB2CDA6E73210500019EF39D791C28642451941D9</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 15:57:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 15:58:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 15:58:31 EST 2023</t>
+  </si>
+  <si>
+    <t>TranType</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>ResFormat</t>
+  </si>
+  <si>
+    <t>TranID</t>
+  </si>
+  <si>
+    <t>ApprovalCode</t>
+  </si>
+  <si>
+    <t>CardName</t>
+  </si>
+  <si>
+    <t>AL1</t>
+  </si>
+  <si>
+    <t>AL2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>CountryID</t>
+  </si>
+  <si>
+    <t>CVVData</t>
+  </si>
+  <si>
+    <t>CVVState</t>
+  </si>
+  <si>
+    <t>Track1Data</t>
+  </si>
+  <si>
+    <t>Track2Data</t>
+  </si>
+  <si>
+    <t>POSEntryMode</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>OrderNumber</t>
+  </si>
+  <si>
+    <t>TaxAmount</t>
+  </si>
+  <si>
+    <t>ChargeDesc</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>BillPaymentInd</t>
+  </si>
+  <si>
+    <t>UDF1</t>
+  </si>
+  <si>
+    <t>UDF2</t>
+  </si>
+  <si>
+    <t>UDF3</t>
+  </si>
+  <si>
+    <t>UDF4</t>
+  </si>
+  <si>
+    <t>UDF5</t>
+  </si>
+  <si>
+    <t>UDF6</t>
+  </si>
+  <si>
+    <t>UDF7</t>
+  </si>
+  <si>
+    <t>UDF8</t>
+  </si>
+  <si>
+    <t>UDF9</t>
+  </si>
+  <si>
+    <t>UDF10</t>
+  </si>
+  <si>
+    <t>COFIndicator</t>
+  </si>
+  <si>
+    <t>StoredCredentialIndicator</t>
+  </si>
+  <si>
+    <t>COFScheduleIndicator</t>
+  </si>
+  <si>
+    <t>COFTransactionInitiatedBy</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>2.0C</t>
+  </si>
+  <si>
+    <t>fixed_width</t>
+  </si>
+  <si>
+    <t>Kris Roshan</t>
+  </si>
+  <si>
+    <t>258 Elm Road</t>
+  </si>
+  <si>
+    <t>Suite 56</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>22201</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>iahmed@govolution.com</t>
+  </si>
+  <si>
+    <t>2569362</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>Charge Description</t>
+  </si>
+  <si>
+    <t>147357</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>UDF Data 1</t>
+  </si>
+  <si>
+    <t>UDF Data 2</t>
+  </si>
+  <si>
+    <t>UDF Data 3</t>
+  </si>
+  <si>
+    <t>UDF Data 4</t>
+  </si>
+  <si>
+    <t>UDF Data 5</t>
+  </si>
+  <si>
+    <t>UDF Data 6</t>
+  </si>
+  <si>
+    <t>UDF Data 7</t>
+  </si>
+  <si>
+    <t>UDF Data 8</t>
+  </si>
+  <si>
+    <t>UDF Data 9</t>
+  </si>
+  <si>
+    <t>UDF Data 10</t>
+  </si>
+  <si>
+    <t>ErrorMsg</t>
+  </si>
+  <si>
+    <t>Missing parameter: transaction_type</t>
+  </si>
+  <si>
+    <t>Missing parameter: message_version</t>
+  </si>
+  <si>
+    <t>Missing parameter: application_id</t>
+  </si>
+  <si>
+    <t>Missing parameter: category</t>
+  </si>
+  <si>
+    <t>AppID</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 16:50:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 16:51:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 16:52:23 EST 2023</t>
+  </si>
+  <si>
+    <t>response_format</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 17:26:01 EST 2023</t>
+  </si>
+  <si>
+    <t>card_name</t>
+  </si>
+  <si>
+    <t>card_address</t>
+  </si>
+  <si>
+    <t>card_zip</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>card_number</t>
+  </si>
+  <si>
+    <t>card_exmo</t>
+  </si>
+  <si>
+    <t>card_exyr</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:04:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:05:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:06:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:07:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:08:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:08:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:09:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:10:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:11:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:12:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:12:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:13:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:14:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:15:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:16:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:16:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:17:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:18:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:19:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:20:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:20:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:21:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:22:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:23:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:24:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:24:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:25:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:26:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:27:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:27:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:28:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:29:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:30:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:30:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:31:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:31:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:31:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:32:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:32:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:33:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:33:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:34:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:34:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:34:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:35:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:35:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:36:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:36:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:37:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:37:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:37:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:38:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:38:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:39:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:39:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:39:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:40:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:40:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:41:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:41:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:42:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:42:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:42:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 13 18:43:15 EST 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,23 +839,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -292,10 +873,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -330,7 +911,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -382,7 +963,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -493,21 +1074,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -524,7 +1105,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -576,15 +1157,332 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3BF19-5985-4984-B3CC-B3E33E12951F}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3BF19-5985-4984-B3CC-B3E33E12951F}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>234</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>234</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2435</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>12</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>581</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3136</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2">
+        <v>12</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2359731-E4E5-4078-88F3-04F82A8C8041}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -592,20 +1490,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -660,7 +1558,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -707,7 +1605,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -754,7 +1652,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -801,7 +1699,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -848,7 +1746,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -891,38 +1789,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
-  </headerFooter>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77641590-759F-4E9F-886E-0EE016894C97}">
-  <dimension ref="A1:O6"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC99232A-9CA5-4149-85DE-BA29AA7848F2}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -977,7 +1871,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1024,7 +1918,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1071,7 +1965,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1118,7 +2012,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1165,7 +2059,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1208,7 +2102,6760 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F4B3B1-E8F7-45EE-B808-7340C74D1EA9}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="46.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="30" r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row ht="30" r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>87</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2435</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row ht="30" r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>581</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3136</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F3F3A8-CC55-49BE-B541-0DA825F10822}">
+  <dimension ref="A1:AZ34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="12" max="12" style="2" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" style="1" width="9.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="15" max="16384" style="2" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" ht="45" r="1" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="45" r="2" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="2">
+        <v>234</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY2" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="3" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="2">
+        <v>234</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY3" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="4" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="2">
+        <v>234</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY4" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="5" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="2">
+        <v>234</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY5" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="6" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="2">
+        <v>234</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY6" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="7" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="2">
+        <v>234</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY7" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="8" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY8" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="9" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY9" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="10" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY10" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="11" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="2">
+        <v>234</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY11" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="12" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="2">
+        <v>234</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY12" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="13" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="2">
+        <v>234</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY13" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="14" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="2">
+        <v>234</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY14" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="15" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="2">
+        <v>234</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY15" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="16" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="2">
+        <v>234</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY16" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="17" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="2">
+        <v>234</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY17" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="18" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="2">
+        <v>234</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY18" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="19" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="2">
+        <v>234</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY19" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="20" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="2">
+        <v>234</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY20" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="21" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="2">
+        <v>234</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY21" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="22" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="2">
+        <v>234</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY22" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="23" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="2">
+        <v>234</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY23" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="24" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="2">
+        <v>234</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY24" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="25" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="2">
+        <v>234</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY25" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="26" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="2">
+        <v>234</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY26" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="27" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="2">
+        <v>234</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY27" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="28" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="2">
+        <v>234</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY28" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="29" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="2">
+        <v>234</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY29" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="30" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="2">
+        <v>234</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY30" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="31" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="2">
+        <v>234</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY31" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="32" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="2">
+        <v>234</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY32" s="4"/>
+    </row>
+    <row customFormat="1" ht="45" r="33" s="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="2">
+        <v>234</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY33" s="4"/>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="L34" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EF3280-CA4E-46F2-B2B8-2F43A765033A}">
+  <dimension ref="A1:W34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="12" max="12" style="2" width="9.140625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
+    <col min="15" max="16384" style="2" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" ht="30" r="1" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="2" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="2">
+        <v>234</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="3" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="2">
+        <v>234</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="4" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="2">
+        <v>234</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="5" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="2">
+        <v>234</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="6" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="2">
+        <v>234</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="7" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="2">
+        <v>234</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="8" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="9" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="10" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="11" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="2">
+        <v>234</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="12" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="2">
+        <v>234</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="13" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="2">
+        <v>234</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="14" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="2">
+        <v>234</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="15" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="2">
+        <v>234</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="16" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="2">
+        <v>234</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="17" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="2">
+        <v>234</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="18" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="2">
+        <v>234</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="19" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="2">
+        <v>234</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="20" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="2">
+        <v>234</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="21" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="2">
+        <v>234</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="22" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="2">
+        <v>234</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="23" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="2">
+        <v>234</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="24" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="2">
+        <v>234</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="25" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="2">
+        <v>234</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="26" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="2">
+        <v>234</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="27" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="2">
+        <v>234</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="28" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="2">
+        <v>234</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="29" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="2">
+        <v>234</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="30" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="2">
+        <v>234</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="31" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="2">
+        <v>234</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="32" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="2">
+        <v>234</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="33" s="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="2">
+        <v>234</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L34" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77641590-759F-4E9F-886E-0EE016894C97}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>234</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>234</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2435</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>12</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>581</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3136</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2">
+        <v>12</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1216,8 +8863,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F862F746-9284-4D5F-8449-DC04488EA2C6}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F862F746-9284-4D5F-8449-DC04488EA2C6}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1225,20 +8872,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1293,7 +8940,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1340,7 +8987,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1387,7 +9034,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1434,7 +9081,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1481,7 +9128,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1524,13 +9171,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD14A431-43B3-4E34-B368-8DDA4A423BE8}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD14A431-43B3-4E34-B368-8DDA4A423BE8}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1538,20 +9185,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1606,7 +9253,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1653,7 +9300,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1700,7 +9347,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1747,7 +9394,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1794,7 +9441,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1837,34 +9484,835 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8FDEE7-E2F6-498C-8E90-D24ED0C44AC2}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8FDEE7-E2F6-498C-8E90-D24ED0C44AC2}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>234</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>234</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2435</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>12</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>581</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3136</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2">
+        <v>12</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C85066F-A70F-4EC6-96A2-3B11D71E8332}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="46.85546875" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="45" r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>87</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2435</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>581</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3136</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EA94AF-A176-4725-8452-BA8E3503AAAB}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>234</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>234</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2435</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>12</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>581</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3136</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2">
+        <v>12</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407A61CA-7BCD-4622-83EC-6EE78F45F1F1}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1915,8 +10363,12 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1958,8 +10410,12 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
@@ -2001,8 +10457,12 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2044,8 +10504,12 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
@@ -2087,8 +10551,12 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
@@ -2130,6 +10598,319 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846A7054-8630-44CB-A36C-72BF4E3BB15C}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>234</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>234</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2435</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>12</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>581</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3136</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2">
+        <v>12</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -1,36 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{0D2AC192-4148-41A0-B4A4-8EFFCC7224EC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66895AE-B66A-4F2B-B2A2-A9E06D7A21F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="12" firstSheet="6" windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="10" activeTab="12" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}"/>
   </bookViews>
   <sheets>
-    <sheet name="Auth" r:id="rId1" sheetId="1"/>
-    <sheet name="AuthCapture" r:id="rId2" sheetId="2"/>
-    <sheet name="Sale" r:id="rId3" sheetId="3"/>
-    <sheet name="Sale-Void" r:id="rId4" sheetId="4"/>
-    <sheet name="Sale-Credit" r:id="rId5" sheetId="5"/>
-    <sheet name="Sale-Unencrypted" r:id="rId6" sheetId="6"/>
-    <sheet name="Sale-ZeroDollar" r:id="rId7" sheetId="7"/>
-    <sheet name="Sale-Void-NoTranxID" r:id="rId8" sheetId="8"/>
-    <sheet name="Sale-Credit-Void" r:id="rId9" sheetId="9"/>
-    <sheet name="Auth-Cap-Void" r:id="rId10" sheetId="10"/>
-    <sheet name="Auth-Cap-Credit" r:id="rId11" sheetId="11"/>
-    <sheet name="Sale-Encrypted" r:id="rId12" sheetId="12"/>
-    <sheet name="Sale-MRF" r:id="rId13" sheetId="13"/>
-    <sheet name="Auth-MRF" r:id="rId14" sheetId="14"/>
+    <sheet name="Auth" sheetId="1" r:id="rId1"/>
+    <sheet name="AuthCapture" sheetId="2" r:id="rId2"/>
+    <sheet name="Sale" sheetId="3" r:id="rId3"/>
+    <sheet name="Sale-Void" sheetId="4" r:id="rId4"/>
+    <sheet name="Sale-Credit" sheetId="5" r:id="rId5"/>
+    <sheet name="Sale-Unencrypted" sheetId="6" r:id="rId6"/>
+    <sheet name="Sale-ZeroDollar" sheetId="7" r:id="rId7"/>
+    <sheet name="Sale-Void-NoTranxID" sheetId="8" r:id="rId8"/>
+    <sheet name="Sale-Credit-Void" sheetId="9" r:id="rId9"/>
+    <sheet name="Auth-Cap-Void" sheetId="10" r:id="rId10"/>
+    <sheet name="Auth-Cap-Credit" sheetId="11" r:id="rId11"/>
+    <sheet name="Sale-Encrypted" sheetId="12" r:id="rId12"/>
+    <sheet name="Sale-MRF" sheetId="13" r:id="rId13"/>
+    <sheet name="Auth-MRF" sheetId="14" r:id="rId14"/>
+    <sheet name="Cap-MRF" sheetId="15" r:id="rId15"/>
+    <sheet name="Void-MRF" sheetId="16" r:id="rId16"/>
+    <sheet name="Credit-MRF" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="269">
   <si>
     <t>Result</t>
   </si>
@@ -555,21 +558,9 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Fri Jan 13 16:50:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Jan 13 16:51:35 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Jan 13 16:52:23 EST 2023</t>
-  </si>
-  <si>
     <t>response_format</t>
   </si>
   <si>
-    <t>Fri Jan 13 17:26:01 EST 2023</t>
-  </si>
-  <si>
     <t>card_name</t>
   </si>
   <si>
@@ -591,9 +582,6 @@
     <t>card_exyr</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Fri Jan 13 18:04:55 EST 2023</t>
   </si>
   <si>
@@ -784,13 +772,99 @@
   </si>
   <si>
     <t>Fri Jan 13 18:43:15 EST 2023</t>
+  </si>
+  <si>
+    <t>transaction_id</t>
+  </si>
+  <si>
+    <t>Signon authentication error</t>
+  </si>
+  <si>
+    <t>TranxID</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:08:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:09:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:09:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:09:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:09:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:09:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:10:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:10:19 EST 2023</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:35:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:35:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:36:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:36:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:36:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:36:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:36:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:51:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:51:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:52:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:52:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:52:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:52:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:53:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jan 17 15:53:28 EST 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -839,24 +913,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -873,10 +947,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -911,7 +985,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -963,7 +1037,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1074,21 +1148,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1105,7 +1179,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1157,15 +1231,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3BF19-5985-4984-B3CC-B3E33E12951F}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3BF19-5985-4984-B3CC-B3E33E12951F}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -1173,20 +1247,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1472,8 +1546,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1481,8 +1555,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2359731-E4E5-4078-88F3-04F82A8C8041}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2359731-E4E5-4078-88F3-04F82A8C8041}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1490,20 +1564,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1789,13 +1863,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC99232A-9CA5-4149-85DE-BA29AA7848F2}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC99232A-9CA5-4149-85DE-BA29AA7848F2}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -1803,20 +1877,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2102,13 +2176,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F4B3B1-E8F7-45EE-B808-7340C74D1EA9}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F4B3B1-E8F7-45EE-B808-7340C74D1EA9}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:J1048576"/>
@@ -2116,25 +2190,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="46.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
-    <col min="16" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="46.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2181,7 +2255,7 @@
         <v>87</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2228,7 +2302,7 @@
         <v>88</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2275,7 +2349,7 @@
         <v>88</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2323,38 +2397,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F3F3A8-CC55-49BE-B541-0DA825F10822}">
-  <dimension ref="A1:AZ34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F3F3A8-CC55-49BE-B541-0DA825F10822}">
+  <dimension ref="A1:AY34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="28.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="12" max="12" style="2" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" style="1" width="9.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="15" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="2" collapsed="1"/>
+    <col min="13" max="13" width="9.140625" style="1" collapsed="1"/>
+    <col min="14" max="14" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="45" r="1" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2509,12 +2583,12 @@
         <v>129</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="2" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -2629,12 +2703,12 @@
       </c>
       <c r="AY2" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="3" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -2749,12 +2823,12 @@
       </c>
       <c r="AY3" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="4" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -2869,12 +2943,12 @@
       </c>
       <c r="AY4" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="5" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -2989,12 +3063,12 @@
       </c>
       <c r="AY5" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="6" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -3109,12 +3183,12 @@
       </c>
       <c r="AY6" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="7" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -3229,12 +3303,12 @@
       </c>
       <c r="AY7" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="8" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -3350,12 +3424,12 @@
       </c>
       <c r="AY8" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="9" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -3471,12 +3545,12 @@
       </c>
       <c r="AY9" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="10" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -3592,12 +3666,12 @@
       </c>
       <c r="AY10" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="11" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -3606,7 +3680,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F11" s="2">
         <v>234</v>
@@ -3712,12 +3786,12 @@
       </c>
       <c r="AY11" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="12" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -3726,7 +3800,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F12" s="2">
         <v>234</v>
@@ -3832,12 +3906,12 @@
       </c>
       <c r="AY12" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="13" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -3846,7 +3920,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F13" s="2">
         <v>234</v>
@@ -3952,12 +4026,12 @@
       </c>
       <c r="AY13" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="14" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -4072,12 +4146,12 @@
       </c>
       <c r="AY14" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="15" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -4086,7 +4160,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F15" s="2">
         <v>234</v>
@@ -4192,12 +4266,12 @@
       </c>
       <c r="AY15" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="16" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -4206,7 +4280,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F16" s="2">
         <v>234</v>
@@ -4312,12 +4386,12 @@
       </c>
       <c r="AY16" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="17" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -4326,7 +4400,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F17" s="2">
         <v>234</v>
@@ -4432,12 +4506,12 @@
       </c>
       <c r="AY17" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="18" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -4446,7 +4520,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F18" s="2">
         <v>234</v>
@@ -4552,12 +4626,12 @@
       </c>
       <c r="AY18" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="19" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -4566,7 +4640,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F19" s="2">
         <v>234</v>
@@ -4672,12 +4746,12 @@
       </c>
       <c r="AY19" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="20" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -4686,7 +4760,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F20" s="2">
         <v>234</v>
@@ -4792,12 +4866,12 @@
       </c>
       <c r="AY20" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="21" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -4806,7 +4880,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F21" s="2">
         <v>234</v>
@@ -4912,12 +4986,12 @@
       </c>
       <c r="AY21" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="22" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -4926,7 +5000,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F22" s="2">
         <v>234</v>
@@ -5032,12 +5106,12 @@
       </c>
       <c r="AY22" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="23" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
@@ -5046,7 +5120,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F23" s="2">
         <v>234</v>
@@ -5152,12 +5226,12 @@
       </c>
       <c r="AY23" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="24" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -5166,7 +5240,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F24" s="2">
         <v>234</v>
@@ -5272,12 +5346,12 @@
       </c>
       <c r="AY24" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="25" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -5286,7 +5360,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F25" s="2">
         <v>234</v>
@@ -5392,12 +5466,12 @@
       </c>
       <c r="AY25" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="26" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
@@ -5406,7 +5480,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F26" s="2">
         <v>234</v>
@@ -5512,12 +5586,12 @@
       </c>
       <c r="AY26" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="27" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -5526,7 +5600,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F27" s="2">
         <v>234</v>
@@ -5632,12 +5706,12 @@
       </c>
       <c r="AY27" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="28" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -5646,7 +5720,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F28" s="2">
         <v>234</v>
@@ -5752,12 +5826,12 @@
       </c>
       <c r="AY28" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="29" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -5766,7 +5840,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F29" s="2">
         <v>234</v>
@@ -5872,12 +5946,12 @@
       </c>
       <c r="AY29" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="30" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -5886,7 +5960,7 @@
         <v>25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F30" s="2">
         <v>234</v>
@@ -5992,12 +6066,12 @@
       </c>
       <c r="AY30" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="31" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
@@ -6006,7 +6080,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F31" s="2">
         <v>234</v>
@@ -6112,12 +6186,12 @@
       </c>
       <c r="AY31" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="32" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
@@ -6126,7 +6200,7 @@
         <v>25</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F32" s="2">
         <v>234</v>
@@ -6232,12 +6306,12 @@
       </c>
       <c r="AY32" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="33" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
@@ -6246,7 +6320,7 @@
         <v>25</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F33" s="2">
         <v>234</v>
@@ -6356,2199 +6430,14 @@
       <c r="L34" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EF3280-CA4E-46F2-B2B8-2F43A765033A}">
-  <dimension ref="A1:W34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="28.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="12" max="12" style="2" width="9.140625" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
-    <col min="15" max="16384" style="2" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" ht="30" r="1" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="2" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" s="2">
-        <v>234</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="3" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="2">
-        <v>234</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="4" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="2">
-        <v>234</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="5" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="2">
-        <v>234</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="6" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="2">
-        <v>234</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="7" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="2">
-        <v>234</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="8" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="9" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="10" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="11" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="2">
-        <v>234</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="12" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="2">
-        <v>234</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="13" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="2">
-        <v>234</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="14" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="2">
-        <v>234</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="15" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" s="2">
-        <v>234</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="16" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" s="2">
-        <v>234</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="17" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" s="2">
-        <v>234</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="18" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F18" s="2">
-        <v>234</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="19" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" s="2">
-        <v>234</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="20" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="2">
-        <v>234</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="21" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F21" s="2">
-        <v>234</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="22" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22" s="2">
-        <v>234</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="23" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" s="2">
-        <v>234</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="24" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>235</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F24" s="2">
-        <v>234</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="25" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F25" s="2">
-        <v>234</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="26" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="2">
-        <v>234</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="27" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="2">
-        <v>234</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="28" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" s="2">
-        <v>234</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="29" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F29" s="2">
-        <v>234</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="30" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>241</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F30" s="2">
-        <v>234</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="31" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>242</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F31" s="2">
-        <v>234</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="32" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="2">
-        <v>234</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="33" s="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F33" s="2">
-        <v>234</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="L34" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77641590-759F-4E9F-886E-0EE016894C97}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EF3280-CA4E-46F2-B2B8-2F43A765033A}">
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -8556,20 +6445,3277 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="2" collapsed="1"/>
+    <col min="13" max="14" width="11.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="9.140625" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="2">
+        <v>234</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="2">
+        <v>234</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="2">
+        <v>234</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="2">
+        <v>234</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="2">
+        <v>234</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="2">
+        <v>234</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="2">
+        <v>234</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="2">
+        <v>234</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="2">
+        <v>234</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="2">
+        <v>234</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="2">
+        <v>234</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="2">
+        <v>234</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="2">
+        <v>234</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="2">
+        <v>234</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="2">
+        <v>234</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="2">
+        <v>234</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="2">
+        <v>234</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="2">
+        <v>234</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="2">
+        <v>234</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="2">
+        <v>234</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="2">
+        <v>234</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="2">
+        <v>234</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="2">
+        <v>234</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="2">
+        <v>234</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="2">
+        <v>234</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="2">
+        <v>234</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="2">
+        <v>234</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="2">
+        <v>234</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="2">
+        <v>234</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L34" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BA243B-4AA6-4B80-8D83-694CE3832665}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="2">
+        <v>234</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="2">
+        <v>234</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="2">
+        <v>234</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="2">
+        <v>234</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="2">
+        <v>234</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="2">
+        <v>234</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="2">
+        <v>234</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9035B600-1AE4-4F39-B9B0-C3B647778074}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="2">
+        <v>234</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="2">
+        <v>234</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="2">
+        <v>234</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="2">
+        <v>234</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="2">
+        <v>234</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="2">
+        <v>234</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D985158-3685-4E06-8AAF-5C6291ED2A2E}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="2">
+        <v>234</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="2">
+        <v>234</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="2">
+        <v>234</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="2">
+        <v>234</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="2">
+        <v>234</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="2">
+        <v>234</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="2">
+        <v>234</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77641590-759F-4E9F-886E-0EE016894C97}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -8855,7 +10001,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -8863,8 +10009,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F862F746-9284-4D5F-8449-DC04488EA2C6}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F862F746-9284-4D5F-8449-DC04488EA2C6}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -8872,20 +10018,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -9171,13 +10317,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD14A431-43B3-4E34-B368-8DDA4A423BE8}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD14A431-43B3-4E34-B368-8DDA4A423BE8}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -9185,20 +10331,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -9484,13 +10630,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8FDEE7-E2F6-498C-8E90-D24ED0C44AC2}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8FDEE7-E2F6-498C-8E90-D24ED0C44AC2}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -9498,20 +10644,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -9777,13 +10923,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C85066F-A70F-4EC6-96A2-3B11D71E8332}">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C85066F-A70F-4EC6-96A2-3B11D71E8332}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -9791,20 +10937,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="46.85546875" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="46.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -9848,7 +10994,7 @@
         <v>53</v>
       </c>
     </row>
-    <row ht="45" r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -9889,7 +11035,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -9930,7 +11076,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -9972,13 +11118,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EA94AF-A176-4725-8452-BA8E3503AAAB}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EA94AF-A176-4725-8452-BA8E3503AAAB}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -9986,20 +11132,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -10285,13 +11431,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407A61CA-7BCD-4622-83EC-6EE78F45F1F1}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407A61CA-7BCD-4622-83EC-6EE78F45F1F1}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B6"/>
@@ -10299,20 +11445,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -10598,13 +11744,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846A7054-8630-44CB-A36C-72BF4E3BB15C}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846A7054-8630-44CB-A36C-72BF4E3BB15C}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
@@ -10612,20 +11758,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -10911,6 +12057,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="289">
   <si>
     <t>Result</t>
   </si>
@@ -915,6 +915,12 @@
   </si>
   <si>
     <t>Thu Feb 09 13:10:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 13:31:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 13:31:41 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -9824,10 +9830,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>272</v>
@@ -9862,10 +9868,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>272</v>

--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="601">
   <si>
     <t>Result</t>
   </si>
@@ -921,6 +921,942 @@
   </si>
   <si>
     <t>Wed Feb 15 13:31:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:33:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:33:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:34:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:34:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:34:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:34:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:35:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:35:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:36:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:36:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:38:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:38:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:38:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:39:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:39:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:39:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:40:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:40:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:40:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:41:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:41:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:42:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:42:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:43:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:43:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:43:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:44:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:44:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:44:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:45:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:45:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:45:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:45:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:46:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:46:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:46:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:47:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:47:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:47:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:48:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:49:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:49:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:50:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:52:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:52:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:53:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:53:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:53:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:54:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:54:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:54:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:55:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:55:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:57:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:57:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:58:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:58:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:58:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:58:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:59:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 21:59:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:00:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:00:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:00:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:01:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:01:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:02:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:02:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:03:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:03:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:03:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:04:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:04:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:04:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:04:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:05:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:05:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:05:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:06:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:06:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:06:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:07:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:07:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:08:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:08:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:09:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:10:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:10:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:11:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:11:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:12:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:12:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:13:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:13:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:14:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:14:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:15:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:15:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:15:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:16:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:16:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:17:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:18:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:18:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:19:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:20:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:21:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:21:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:22:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:23:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:23:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:24:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:25:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:26:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:26:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:27:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:28:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:28:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:29:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:30:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:30:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:31:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:32:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:33:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:33:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:34:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:35:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:35:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:36:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:37:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:38:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:38:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:39:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:39:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:39:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:40:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:40:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:40:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:41:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:41:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:41:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:42:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:42:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:43:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:43:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:43:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:44:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:44:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:44:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:45:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:45:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:45:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:46:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:46:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:46:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:47:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:47:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:47:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:48:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:48:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:48:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:49:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:49:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:50:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:50:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:50:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:50:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:50:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:50:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:51:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:51:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:51:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:51:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:51:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:52:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:52:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:52:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:52:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:52:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:52:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:53:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:53:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:53:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:53:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:54:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:54:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:26:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:26:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:26:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:26:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:27:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:27:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 18:58:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 18:59:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 18:59:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 18:59:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 18:59:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:00:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:00:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:00:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:01:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:01:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:03:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:03:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:03:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:03:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:04:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:04:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:04:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:05:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:05:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:05:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:06:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:06:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:06:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:07:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:07:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:07:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:07:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:08:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:08:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:08:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:09:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:09:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:09:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:09:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:10:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:10:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:10:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:11:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:11:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:11:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:11:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:12:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:12:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:12:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:13:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:13:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:13:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:13:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:14:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:14:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:14:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:15:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:15:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:15:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:15:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:16:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:16:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:17:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:18:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:18:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:18:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:19:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:19:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:19:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:20:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:20:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:20:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:21:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:21:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:21:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:22:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:22:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:23:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:23:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:23:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:24:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:24:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:24:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:25:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:25:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:25:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:26:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:26:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:26:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:27:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:27:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:28:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:28:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:28:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:29:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:29:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:29:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:29:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:29:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:30:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:30:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:30:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:30:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:30:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:31:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:31:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:31:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:31:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:31:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:32:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:32:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:32:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:32:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:32:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:33:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:33:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:33:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:59:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:59:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 20:00:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 20:00:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 20:00:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 20:00:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 12:04:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 12:04:28 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +2314,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>599</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1425,7 +2361,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>600</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1469,10 +2405,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>483</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1516,10 +2452,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>484</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1563,10 +2499,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>485</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1692,10 +2628,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>524</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1739,10 +2675,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>525</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1786,10 +2722,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>526</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1833,10 +2769,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>527</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1880,10 +2816,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>528</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2005,10 +2941,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>529</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2052,10 +2988,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>530</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2099,10 +3035,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>531</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2146,10 +3082,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>532</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2193,10 +3129,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>533</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2320,10 +3256,10 @@
     </row>
     <row ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>534</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2367,10 +3303,10 @@
     </row>
     <row ht="30" r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>535</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -2414,10 +3350,10 @@
     </row>
     <row ht="30" r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>536</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -2648,10 +3584,10 @@
     </row>
     <row customFormat="1" ht="45" r="2" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>537</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -2771,7 +3707,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>389</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -2891,7 +3827,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>390</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -3011,7 +3947,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>391</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -3131,7 +4067,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>392</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -3251,7 +4187,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>393</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -3371,7 +4307,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>394</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -3492,7 +4428,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>395</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -3613,7 +4549,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>396</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -3734,7 +4670,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>397</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -3854,7 +4790,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>398</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -3974,7 +4910,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>399</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -4094,7 +5030,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -4214,7 +5150,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>401</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -4334,7 +5270,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>402</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -4454,7 +5390,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>403</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -4574,7 +5510,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>404</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -4694,7 +5630,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>405</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -4814,7 +5750,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>406</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -4934,7 +5870,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>407</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -5054,7 +5990,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>408</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -5174,7 +6110,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>409</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
@@ -5294,7 +6230,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>410</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -5414,7 +6350,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>411</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -5534,7 +6470,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>412</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
@@ -5654,7 +6590,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>413</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -5774,7 +6710,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>414</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -5894,7 +6830,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>415</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -6014,7 +6950,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>416</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -6134,7 +7070,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>213</v>
+        <v>417</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
@@ -6254,7 +7190,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
@@ -6374,7 +7310,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>419</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
@@ -6594,10 +7530,10 @@
     </row>
     <row customFormat="1" ht="30" r="2" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>538</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -6659,10 +7595,10 @@
     </row>
     <row customFormat="1" ht="30" r="3" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>539</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -6724,10 +7660,10 @@
     </row>
     <row customFormat="1" ht="30" r="4" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>540</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -6789,10 +7725,10 @@
     </row>
     <row customFormat="1" ht="30" r="5" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>541</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -6854,10 +7790,10 @@
     </row>
     <row customFormat="1" ht="30" r="6" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>542</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -6919,10 +7855,10 @@
     </row>
     <row customFormat="1" ht="30" r="7" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>543</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -6984,10 +7920,10 @@
     </row>
     <row customFormat="1" ht="30" r="8" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>544</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -7050,10 +7986,10 @@
     </row>
     <row customFormat="1" ht="30" r="9" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>545</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -7116,10 +8052,10 @@
     </row>
     <row customFormat="1" ht="30" r="10" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>546</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -7182,10 +8118,10 @@
     </row>
     <row customFormat="1" ht="30" r="11" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>547</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -7247,10 +8183,10 @@
     </row>
     <row customFormat="1" ht="30" r="12" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>548</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -7312,10 +8248,10 @@
     </row>
     <row customFormat="1" ht="30" r="13" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>549</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -7377,10 +8313,10 @@
     </row>
     <row customFormat="1" ht="30" r="14" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>550</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -7442,10 +8378,10 @@
     </row>
     <row customFormat="1" ht="30" r="15" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>551</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -7507,10 +8443,10 @@
     </row>
     <row customFormat="1" ht="30" r="16" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>552</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -7572,10 +8508,10 @@
     </row>
     <row customFormat="1" ht="30" r="17" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B17" t="s">
-        <v>231</v>
+        <v>553</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -7637,10 +8573,10 @@
     </row>
     <row customFormat="1" ht="30" r="18" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>554</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -7702,10 +8638,10 @@
     </row>
     <row customFormat="1" ht="30" r="19" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B19" t="s">
-        <v>233</v>
+        <v>555</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -7767,10 +8703,10 @@
     </row>
     <row customFormat="1" ht="30" r="20" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>556</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -7832,10 +8768,10 @@
     </row>
     <row customFormat="1" ht="30" r="21" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>557</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -7897,10 +8833,10 @@
     </row>
     <row customFormat="1" ht="30" r="22" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>558</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -7962,10 +8898,10 @@
     </row>
     <row customFormat="1" ht="30" r="23" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B23" t="s">
-        <v>237</v>
+        <v>559</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
@@ -8027,10 +8963,10 @@
     </row>
     <row customFormat="1" ht="30" r="24" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>560</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -8092,10 +9028,10 @@
     </row>
     <row customFormat="1" ht="30" r="25" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s">
-        <v>239</v>
+        <v>561</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -8157,10 +9093,10 @@
     </row>
     <row customFormat="1" ht="30" r="26" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>562</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
@@ -8222,10 +9158,10 @@
     </row>
     <row customFormat="1" ht="30" r="27" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>563</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -8287,10 +9223,10 @@
     </row>
     <row customFormat="1" ht="30" r="28" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s">
-        <v>242</v>
+        <v>564</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -8352,10 +9288,10 @@
     </row>
     <row customFormat="1" ht="30" r="29" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s">
-        <v>243</v>
+        <v>565</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -8417,10 +9353,10 @@
     </row>
     <row customFormat="1" ht="30" r="30" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s">
-        <v>244</v>
+        <v>566</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -8482,10 +9418,10 @@
     </row>
     <row customFormat="1" ht="30" r="31" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s">
-        <v>245</v>
+        <v>567</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
@@ -8547,10 +9483,10 @@
     </row>
     <row customFormat="1" ht="30" r="32" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s">
-        <v>246</v>
+        <v>568</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
@@ -8612,10 +9548,10 @@
     </row>
     <row customFormat="1" ht="30" r="33" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s">
-        <v>247</v>
+        <v>569</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
@@ -8750,10 +9686,10 @@
     </row>
     <row customFormat="1" ht="30" r="2" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>570</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -8788,10 +9724,10 @@
     </row>
     <row customFormat="1" ht="30" r="3" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>571</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -8826,10 +9762,10 @@
     </row>
     <row customFormat="1" ht="30" r="4" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>572</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -8865,10 +9801,10 @@
     </row>
     <row customFormat="1" r="5" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>573</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -8903,10 +9839,10 @@
     </row>
     <row customFormat="1" r="6" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>574</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -8941,10 +9877,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>575</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -8979,10 +9915,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>576</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -9017,10 +9953,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>577</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -9125,10 +10061,10 @@
     </row>
     <row customFormat="1" ht="30" r="2" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>578</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -9160,10 +10096,10 @@
     </row>
     <row customFormat="1" ht="30" r="3" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>579</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -9195,10 +10131,10 @@
     </row>
     <row customFormat="1" ht="30" r="4" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>580</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -9231,10 +10167,10 @@
     </row>
     <row customFormat="1" r="5" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>581</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -9266,10 +10202,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>582</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -9301,10 +10237,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>583</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -9336,10 +10272,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>584</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -9444,10 +10380,10 @@
     </row>
     <row customFormat="1" ht="30" r="2" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>585</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -9482,10 +10418,10 @@
     </row>
     <row customFormat="1" ht="30" r="3" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>586</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -9520,10 +10456,10 @@
     </row>
     <row customFormat="1" ht="30" r="4" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>587</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -9559,10 +10495,10 @@
     </row>
     <row customFormat="1" r="5" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>588</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -9597,10 +10533,10 @@
     </row>
     <row customFormat="1" r="6" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>589</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -9635,10 +10571,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>590</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -9673,10 +10609,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>591</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -9711,10 +10647,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>592</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -9830,10 +10766,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>596</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>272</v>
@@ -9868,10 +10804,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>597</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>272</v>
@@ -9909,7 +10845,7 @@
         <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>598</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>272</v>
@@ -10022,10 +10958,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>593</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>272</v>
@@ -10060,10 +10996,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>594</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>272</v>
@@ -10098,10 +11034,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>595</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>272</v>
@@ -10214,10 +11150,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>486</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10261,10 +11197,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>487</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10308,10 +11244,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>488</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -10355,10 +11291,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>489</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -10402,10 +11338,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>490</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -10530,10 +11466,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>491</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10577,10 +11513,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>492</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10624,10 +11560,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>493</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -10671,10 +11607,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>494</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -10718,10 +11654,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>495</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -10843,10 +11779,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>496</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10890,10 +11826,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>497</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10937,10 +11873,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>498</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -10984,10 +11920,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>499</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11031,10 +11967,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>500</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11156,10 +12092,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>501</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11203,10 +12139,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>502</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11250,10 +12186,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>503</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11297,10 +12233,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>504</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11344,10 +12280,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>505</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11463,10 +12399,10 @@
     </row>
     <row ht="45" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>506</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11504,10 +12440,10 @@
     </row>
     <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>507</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -11545,10 +12481,10 @@
     </row>
     <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>508</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -11664,10 +12600,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>509</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11711,10 +12647,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>510</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11758,10 +12694,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>511</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11805,10 +12741,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>512</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11852,10 +12788,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>513</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11977,10 +12913,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>514</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12024,10 +12960,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>515</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12071,10 +13007,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>516</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12118,10 +13054,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>517</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12165,10 +13101,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>518</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12290,10 +13226,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>519</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12337,10 +13273,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>520</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12384,10 +13320,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>521</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12431,10 +13367,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>522</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12478,10 +13414,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>523</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>

--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FB781A-0DBE-4061-8220-4C1EF0F75ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB15B436-E64B-4D4E-9763-31FEBFF69089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="11" activeTab="18" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}"/>
+    <workbookView minimized="1" xWindow="-24135" yWindow="4455" windowWidth="21600" windowHeight="11970" firstSheet="11" activeTab="17" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="1" r:id="rId1"/>
@@ -9746,8 +9746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A3FE28-6D3A-468C-B453-4E8625D9142D}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9938,7 +9938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C12825-4D21-4476-8848-6E435EC04842}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>

--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB15B436-E64B-4D4E-9763-31FEBFF69089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE9E3B-EC7B-452F-9634-E48B5F4D3018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-24135" yWindow="4455" windowWidth="21600" windowHeight="11970" firstSheet="11" activeTab="17" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="1" r:id="rId1"/>
@@ -551,159 +551,6 @@
     <t>Wed Feb 15 22:38:04 EST 2023</t>
   </si>
   <si>
-    <t>Thu Feb 16 18:59:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 18:59:39 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 18:59:57 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:00:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:00:34 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:00:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:01:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:01:26 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:03:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:03:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:03:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:03:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:04:17 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:04:34 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:04:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:05:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:05:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:05:55 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:06:13 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:06:31 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:06:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:07:06 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:07:24 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:07:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:07:58 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:08:15 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:08:33 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:08:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:09:05 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:09:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:09:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:09:53 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:10:11 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:10:28 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:10:45 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:11:03 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:11:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:11:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:11:55 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:12:13 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:12:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:12:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:13:06 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:13:23 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:13:41 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:13:58 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:14:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:14:33 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:14:50 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:15:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:15:24 EST 2023</t>
-  </si>
-  <si>
     <t>Thu Feb 16 19:15:42 EST 2023</t>
   </si>
   <si>
@@ -899,16 +746,169 @@
     <t>Thu Feb 16 20:00:57 EST 2023</t>
   </si>
   <si>
-    <t>Fri Feb 17 12:04:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 12:04:28 EST 2023</t>
-  </si>
-  <si>
     <t>Qq2BV1qtr</t>
   </si>
   <si>
     <t>tUmWBiLUx</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:18:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:18:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:19:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:19:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:19:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:19:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:20:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:20:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:21:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:21:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:22:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:23:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:23:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:24:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:24:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:24:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:24:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:25:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:25:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:26:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:26:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:26:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:26:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:27:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:27:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:27:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:27:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:27:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:28:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:28:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:28:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:29:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:29:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:29:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:30:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:31:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:31:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:31:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:32:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:32:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:33:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:33:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:34:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:34:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:35:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:35:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:36:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:36:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Mar 01 18:32:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Mar 01 18:32:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Mar 01 18:32:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Mar 01 18:32:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Mar 01 18:33:10 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,7 +1365,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1386,10 +1386,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>17</v>
@@ -1412,7 +1412,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1433,10 +1433,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1480,10 +1480,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>19</v>
@@ -1506,7 +1506,7 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1553,7 +1553,7 @@
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1679,10 +1679,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1703,10 +1703,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>17</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1750,10 +1750,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1797,10 +1797,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>19</v>
@@ -1823,7 +1823,7 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1870,7 +1870,7 @@
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2016,10 +2016,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>17</v>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2063,10 +2063,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2110,10 +2110,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>19</v>
@@ -2136,7 +2136,7 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2183,7 +2183,7 @@
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2310,7 +2310,7 @@
         <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2331,10 +2331,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>19</v>
@@ -2357,7 +2357,7 @@
         <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -2404,7 +2404,7 @@
         <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -2638,7 +2638,7 @@
         <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -6584,7 +6584,7 @@
         <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -6649,7 +6649,7 @@
         <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -6714,7 +6714,7 @@
         <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -6779,7 +6779,7 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -6844,7 +6844,7 @@
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -6909,7 +6909,7 @@
         <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -6974,7 +6974,7 @@
         <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -7040,7 +7040,7 @@
         <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -7106,7 +7106,7 @@
         <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -7172,7 +7172,7 @@
         <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -7237,7 +7237,7 @@
         <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -7302,7 +7302,7 @@
         <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -7367,7 +7367,7 @@
         <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -7432,7 +7432,7 @@
         <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -7497,7 +7497,7 @@
         <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -7562,7 +7562,7 @@
         <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -7627,7 +7627,7 @@
         <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -7692,7 +7692,7 @@
         <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -7757,7 +7757,7 @@
         <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -7822,7 +7822,7 @@
         <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -7887,7 +7887,7 @@
         <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -7952,7 +7952,7 @@
         <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
@@ -8017,7 +8017,7 @@
         <v>133</v>
       </c>
       <c r="B24" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -8082,7 +8082,7 @@
         <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -8147,7 +8147,7 @@
         <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
@@ -8212,7 +8212,7 @@
         <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -8277,7 +8277,7 @@
         <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -8342,7 +8342,7 @@
         <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -8407,7 +8407,7 @@
         <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -8472,7 +8472,7 @@
         <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
@@ -8537,7 +8537,7 @@
         <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
@@ -8602,7 +8602,7 @@
         <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
@@ -8740,7 +8740,7 @@
         <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -8778,7 +8778,7 @@
         <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -8816,7 +8816,7 @@
         <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -8855,7 +8855,7 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -8893,7 +8893,7 @@
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -8931,7 +8931,7 @@
         <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -8969,7 +8969,7 @@
         <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -9007,7 +9007,7 @@
         <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -9115,7 +9115,7 @@
         <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -9150,7 +9150,7 @@
         <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -9185,7 +9185,7 @@
         <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -9221,7 +9221,7 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -9256,7 +9256,7 @@
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -9291,7 +9291,7 @@
         <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -9326,7 +9326,7 @@
         <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -9434,7 +9434,7 @@
         <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -9472,7 +9472,7 @@
         <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -9510,7 +9510,7 @@
         <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -9549,7 +9549,7 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -9587,7 +9587,7 @@
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -9625,7 +9625,7 @@
         <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -9663,7 +9663,7 @@
         <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -9701,7 +9701,7 @@
         <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -9746,7 +9746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A3FE28-6D3A-468C-B453-4E8625D9142D}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -9820,7 +9820,7 @@
         <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>132</v>
@@ -9858,7 +9858,7 @@
         <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>132</v>
@@ -9896,7 +9896,7 @@
         <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>132</v>
@@ -10012,7 +10012,7 @@
         <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>132</v>
@@ -10050,7 +10050,7 @@
         <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>132</v>
@@ -10088,7 +10088,7 @@
         <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>132</v>
@@ -10201,10 +10201,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10225,10 +10225,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>17</v>
@@ -10248,10 +10248,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10272,10 +10272,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -10295,10 +10295,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -10319,10 +10319,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>19</v>
@@ -10345,7 +10345,7 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -10392,7 +10392,7 @@
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -10446,8 +10446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F862F746-9284-4D5F-8449-DC04488EA2C6}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10517,10 +10517,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10541,10 +10541,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>17</v>
@@ -10564,10 +10564,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10588,10 +10588,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -10611,10 +10611,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -10635,10 +10635,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>19</v>
@@ -10658,10 +10658,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -10705,10 +10705,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -10830,10 +10830,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10854,10 +10854,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>17</v>
@@ -10877,10 +10877,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10901,10 +10901,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -10924,10 +10924,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -10948,10 +10948,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>19</v>
@@ -10974,7 +10974,7 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11021,7 +11021,7 @@
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11143,10 +11143,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11167,10 +11167,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>17</v>
@@ -11190,10 +11190,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11214,10 +11214,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -11237,10 +11237,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11261,10 +11261,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>19</v>
@@ -11287,7 +11287,7 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11334,7 +11334,7 @@
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11450,10 +11450,10 @@
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11474,10 +11474,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>19</v>
@@ -11494,7 +11494,7 @@
         <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -11535,7 +11535,7 @@
         <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -11651,10 +11651,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11675,10 +11675,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>17</v>
@@ -11698,10 +11698,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11722,10 +11722,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -11745,10 +11745,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11769,10 +11769,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>19</v>
@@ -11792,10 +11792,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11839,10 +11839,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11964,10 +11964,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11988,10 +11988,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>17</v>
@@ -12011,10 +12011,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>261</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12035,10 +12035,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -12058,10 +12058,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12082,10 +12082,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>19</v>
@@ -12108,7 +12108,7 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12155,7 +12155,7 @@
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12277,10 +12277,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12301,10 +12301,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>17</v>
@@ -12324,10 +12324,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12348,10 +12348,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -12371,10 +12371,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12395,10 +12395,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>19</v>
@@ -12421,7 +12421,7 @@
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>

--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE9E3B-EC7B-452F-9634-E48B5F4D3018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66827845-26D4-47DD-8B0B-0DA457B5316F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}"/>
   </bookViews>
@@ -10447,7 +10447,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{0BE706C7-80A0-46AF-ACD8-D4249D24C472}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9326E784-503B-40FC-A73C-5CC7FF844EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="10" windowHeight="13935" windowWidth="17010" xWindow="5805" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}" yWindow="1200"/>
+    <workbookView xWindow="-23100" yWindow="1005" windowWidth="17010" windowHeight="13935" firstSheet="4" activeTab="5" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}"/>
   </bookViews>
   <sheets>
-    <sheet name="Auth" r:id="rId1" sheetId="1"/>
-    <sheet name="AuthCapture" r:id="rId2" sheetId="2"/>
-    <sheet name="Sale" r:id="rId3" sheetId="3"/>
-    <sheet name="Sale-Void" r:id="rId4" sheetId="4"/>
-    <sheet name="Sale-Credit" r:id="rId5" sheetId="5"/>
-    <sheet name="Sale-Unencrypted" r:id="rId6" sheetId="6"/>
-    <sheet name="Sale-ZeroDollar" r:id="rId7" sheetId="7"/>
-    <sheet name="Sale-Void-NoTranxID" r:id="rId8" sheetId="8"/>
-    <sheet name="Sale-Credit-Void" r:id="rId9" sheetId="9"/>
-    <sheet name="Auth-Cap-Void" r:id="rId10" sheetId="10"/>
-    <sheet name="Auth-Cap-Credit" r:id="rId11" sheetId="11"/>
-    <sheet name="Sale-Encrypted" r:id="rId12" sheetId="12"/>
-    <sheet name="Sale-MRF" r:id="rId13" sheetId="13"/>
-    <sheet name="Auth-MRF" r:id="rId14" sheetId="14"/>
-    <sheet name="Cap-MRF" r:id="rId15" sheetId="15"/>
-    <sheet name="Void-MRF" r:id="rId16" sheetId="16"/>
-    <sheet name="Credit-MRF" r:id="rId17" sheetId="17"/>
-    <sheet name="Sale-CardNotAccepted" r:id="rId18" sheetId="18"/>
-    <sheet name="Auth-CardNotAccepted" r:id="rId19" sheetId="19"/>
+    <sheet name="Auth" sheetId="1" r:id="rId1"/>
+    <sheet name="AuthCapture" sheetId="2" r:id="rId2"/>
+    <sheet name="Sale" sheetId="3" r:id="rId3"/>
+    <sheet name="Sale-Void" sheetId="4" r:id="rId4"/>
+    <sheet name="Sale-Credit" sheetId="5" r:id="rId5"/>
+    <sheet name="Sale-Unencrypted" sheetId="6" r:id="rId6"/>
+    <sheet name="Sale-ZeroDollar" sheetId="7" r:id="rId7"/>
+    <sheet name="Sale-Void-NoTranxID" sheetId="8" r:id="rId8"/>
+    <sheet name="Sale-Credit-Void" sheetId="9" r:id="rId9"/>
+    <sheet name="Auth-Cap-Void" sheetId="10" r:id="rId10"/>
+    <sheet name="Auth-Cap-Credit" sheetId="11" r:id="rId11"/>
+    <sheet name="Sale-Encrypted" sheetId="12" r:id="rId12"/>
+    <sheet name="Sale-MRF" sheetId="13" r:id="rId13"/>
+    <sheet name="Auth-MRF" sheetId="14" r:id="rId14"/>
+    <sheet name="Cap-MRF" sheetId="15" r:id="rId15"/>
+    <sheet name="Void-MRF" sheetId="16" r:id="rId16"/>
+    <sheet name="Credit-MRF" sheetId="17" r:id="rId17"/>
+    <sheet name="Sale-CardNotAccepted" sheetId="18" r:id="rId18"/>
+    <sheet name="Auth-CardNotAccepted" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="285">
   <si>
     <t>Result</t>
   </si>
@@ -740,252 +740,9 @@
     <t>FFFF7381390003600107</t>
   </si>
   <si>
-    <t>Mon Apr 24 21:06:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:07:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:07:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:07:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:08:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:10:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:11:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:11:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:11:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:12:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:18:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:18:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:19:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:19:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:19:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:19:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:20:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:20:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:21:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:21:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:02:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:02:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:03:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:03:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:04:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:04:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:04:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:05:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:05:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:06:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:06:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:06:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:07:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:07:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:08:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:08:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:08:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:09:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:09:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:09:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:10:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:10:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:11:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:12:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:12:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:13:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:13:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:14:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:14:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:15:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:16:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:16:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:17:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:17:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:18:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 10:18:17 EDT 2023</t>
-  </si>
-  <si>
     <t>%B5567080011582687^AHMED/IMTIAZ              ^2603201090300000000000528000015?;5567080011582687=26032010903052800015?</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:11:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:11:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:11:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:13:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:13:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:13:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:17:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:17:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:18:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:24:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:24:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:24:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:26:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:26:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:26:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:28:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:29:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:29:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:30:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:31:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:31:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:46:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:46:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:46:48 EDT 2023</t>
-  </si>
-  <si>
     <t>Tue Apr 25 14:00:50 EDT 2023</t>
   </si>
   <si>
@@ -1061,15 +818,6 @@
     <t>Tue Apr 25 14:08:52 EDT 2023</t>
   </si>
   <si>
-    <t>Tue Apr 25 14:09:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 14:09:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 14:09:46 EDT 2023</t>
-  </si>
-  <si>
     <t>Tue Apr 25 14:10:00 EDT 2023</t>
   </si>
   <si>
@@ -1152,15 +900,6 @@
   </si>
   <si>
     <t>Tue Apr 25 14:21:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 14:50:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 14:50:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 14:51:10 EDT 2023</t>
   </si>
   <si>
     <t>Tue Apr 25 14:52:11 EDT 2023</t>
@@ -1176,7 +915,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1225,24 +963,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1259,10 +997,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1297,7 +1035,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1349,7 +1087,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1460,21 +1198,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1491,7 +1229,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1543,15 +1281,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3BF19-5985-4984-B3CC-B3E33E12951F}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3BF19-5985-4984-B3CC-B3E33E12951F}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
@@ -1559,20 +1297,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1627,7 +1365,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1674,7 +1412,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>230</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1721,7 +1459,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1768,7 +1506,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1815,7 +1553,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1858,8 +1596,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1867,8 +1605,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2359731-E4E5-4078-88F3-04F82A8C8041}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2359731-E4E5-4078-88F3-04F82A8C8041}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J4"/>
@@ -1876,20 +1614,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1944,7 +1682,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>269</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1991,7 +1729,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2038,7 +1776,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2085,7 +1823,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>272</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2132,7 +1870,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>273</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2175,13 +1913,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC99232A-9CA5-4149-85DE-BA29AA7848F2}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC99232A-9CA5-4149-85DE-BA29AA7848F2}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J4"/>
@@ -2189,20 +1927,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2257,7 +1995,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>274</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2304,7 +2042,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2351,7 +2089,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2398,7 +2136,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>361</v>
+        <v>277</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2445,7 +2183,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>362</v>
+        <v>278</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2488,39 +2226,39 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F4B3B1-E8F7-45EE-B808-7340C74D1EA9}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F4B3B1-E8F7-45EE-B808-7340C74D1EA9}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="46.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
-    <col min="16" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="46.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2567,12 +2305,12 @@
         <v>38</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>279</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2614,12 +2352,12 @@
         <v>227</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>280</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -2661,12 +2399,12 @@
         <v>227</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>281</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -2709,13 +2447,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F3F3A8-CC55-49BE-B541-0DA825F10822}">
-  <dimension ref="A1:AZ34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F3F3A8-CC55-49BE-B541-0DA825F10822}">
+  <dimension ref="A1:AY34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -2723,24 +2461,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="28.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="12" max="12" style="2" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" style="1" width="9.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="15" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="2" collapsed="1"/>
+    <col min="13" max="13" width="9.140625" style="1" collapsed="1"/>
+    <col min="14" max="14" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="45" r="1" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2895,7 +2633,7 @@
         <v>75</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="2" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -3015,7 +2753,7 @@
       </c>
       <c r="AY2" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="3" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3135,7 +2873,7 @@
       </c>
       <c r="AY3" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="4" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -3255,7 +2993,7 @@
       </c>
       <c r="AY4" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="5" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -3375,7 +3113,7 @@
       </c>
       <c r="AY5" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="6" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3495,7 +3233,7 @@
       </c>
       <c r="AY6" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="7" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3615,7 +3353,7 @@
       </c>
       <c r="AY7" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="8" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3736,7 +3474,7 @@
       </c>
       <c r="AY8" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="9" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3857,7 +3595,7 @@
       </c>
       <c r="AY9" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="10" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -3978,7 +3716,7 @@
       </c>
       <c r="AY10" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="11" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -4098,7 +3836,7 @@
       </c>
       <c r="AY11" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="12" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -4218,7 +3956,7 @@
       </c>
       <c r="AY12" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="13" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4338,7 +4076,7 @@
       </c>
       <c r="AY13" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="14" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -4458,7 +4196,7 @@
       </c>
       <c r="AY14" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="15" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4578,7 +4316,7 @@
       </c>
       <c r="AY15" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="16" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4698,7 +4436,7 @@
       </c>
       <c r="AY16" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="17" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -4818,7 +4556,7 @@
       </c>
       <c r="AY17" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="18" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -4938,7 +4676,7 @@
       </c>
       <c r="AY18" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="19" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -5058,7 +4796,7 @@
       </c>
       <c r="AY19" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="20" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5178,7 +4916,7 @@
       </c>
       <c r="AY20" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="21" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5298,7 +5036,7 @@
       </c>
       <c r="AY21" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="22" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -5418,7 +5156,7 @@
       </c>
       <c r="AY22" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="23" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -5538,7 +5276,7 @@
       </c>
       <c r="AY23" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="24" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -5658,7 +5396,7 @@
       </c>
       <c r="AY24" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="25" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -5778,7 +5516,7 @@
       </c>
       <c r="AY25" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="26" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -5898,7 +5636,7 @@
       </c>
       <c r="AY26" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="27" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -6018,7 +5756,7 @@
       </c>
       <c r="AY27" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="28" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -6138,7 +5876,7 @@
       </c>
       <c r="AY28" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="29" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -6258,7 +5996,7 @@
       </c>
       <c r="AY29" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="30" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -6378,7 +6116,7 @@
       </c>
       <c r="AY30" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="31" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -6498,7 +6236,7 @@
       </c>
       <c r="AY31" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="32" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -6618,7 +6356,7 @@
       </c>
       <c r="AY32" s="4"/>
     </row>
-    <row customFormat="1" ht="45" r="33" s="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -6742,14 +6480,14 @@
       <c r="L34" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EF3280-CA4E-46F2-B2B8-2F43A765033A}">
-  <dimension ref="A1:W34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EF3280-CA4E-46F2-B2B8-2F43A765033A}">
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -6757,23 +6495,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="28.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="12" max="12" style="2" width="9.140625" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
-    <col min="15" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="2" collapsed="1"/>
+    <col min="13" max="14" width="11.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6841,7 +6579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="2" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -6906,7 +6644,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="3" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -6971,7 +6709,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="4" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -7036,7 +6774,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="5" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -7101,7 +6839,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="6" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -7166,7 +6904,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="7" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -7231,7 +6969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="8" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -7297,7 +7035,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="9" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -7363,7 +7101,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="10" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -7429,7 +7167,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="11" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -7494,7 +7232,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="12" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -7559,7 +7297,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="13" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -7624,7 +7362,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="14" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -7689,7 +7427,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="15" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -7754,7 +7492,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="16" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -7819,7 +7557,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="17" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -7884,7 +7622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="18" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -7949,7 +7687,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="19" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -8014,7 +7752,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="20" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -8079,7 +7817,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="21" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -8144,7 +7882,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="22" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -8209,7 +7947,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="23" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -8274,7 +8012,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="24" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -8339,7 +8077,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="25" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -8404,7 +8142,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="26" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -8469,7 +8207,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="27" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -8534,7 +8272,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="28" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -8599,7 +8337,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="29" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -8664,7 +8402,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="30" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -8729,7 +8467,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="31" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -8794,7 +8532,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="32" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>130</v>
       </c>
@@ -8859,7 +8597,7 @@
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="33" s="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -8928,13 +8666,13 @@
       <c r="L34" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BA243B-4AA6-4B80-8D83-694CE3832665}">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BA243B-4AA6-4B80-8D83-694CE3832665}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -8942,21 +8680,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="28.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="13" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8997,7 +8735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="2" s="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -9035,7 +8773,7 @@
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="3" s="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -9073,7 +8811,7 @@
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="4" s="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -9112,7 +8850,7 @@
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -9150,7 +8888,7 @@
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -9306,13 +9044,13 @@
       <c r="I10" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9035B600-1AE4-4F39-B9B0-C3B647778074}">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9035B600-1AE4-4F39-B9B0-C3B647778074}">
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -9320,21 +9058,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="28.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="13" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9372,7 +9110,7 @@
         <v>124</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="2" s="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -9407,7 +9145,7 @@
         <v>125</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="3" s="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -9442,7 +9180,7 @@
         <v>125</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="4" s="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -9478,7 +9216,7 @@
         <v>125</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -9622,13 +9360,13 @@
       <c r="I9" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D985158-3685-4E06-8AAF-5C6291ED2A2E}">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D985158-3685-4E06-8AAF-5C6291ED2A2E}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -9636,21 +9374,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="28.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="13" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9691,7 +9429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="2" s="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -9729,7 +9467,7 @@
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="3" s="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -9767,7 +9505,7 @@
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="4" s="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -9806,7 +9544,7 @@
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -9844,7 +9582,7 @@
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -10000,13 +9738,13 @@
       <c r="I10" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A3FE28-6D3A-468C-B453-4E8625D9142D}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A3FE28-6D3A-468C-B453-4E8625D9142D}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
@@ -10014,20 +9752,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -10192,13 +9930,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C12825-4D21-4476-8848-6E435EC04842}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C12825-4D21-4476-8848-6E435EC04842}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
@@ -10206,20 +9944,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="30.5703125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -10384,13 +10122,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77641590-759F-4E9F-886E-0EE016894C97}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77641590-759F-4E9F-886E-0EE016894C97}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -10398,20 +10136,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -10466,7 +10204,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10513,7 +10251,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10560,7 +10298,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -10607,7 +10345,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>237</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -10654,7 +10392,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>238</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -10697,7 +10435,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -10705,8 +10443,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F862F746-9284-4D5F-8449-DC04488EA2C6}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F862F746-9284-4D5F-8449-DC04488EA2C6}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
@@ -10714,20 +10452,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -10782,7 +10520,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>239</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10829,7 +10567,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10876,7 +10614,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -10923,7 +10661,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -10970,7 +10708,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>243</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11013,13 +10751,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD14A431-43B3-4E34-B368-8DDA4A423BE8}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD14A431-43B3-4E34-B368-8DDA4A423BE8}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -11027,20 +10765,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -11095,7 +10833,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>244</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11142,7 +10880,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11189,7 +10927,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11236,7 +10974,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11283,7 +11021,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>248</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11326,13 +11064,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8FDEE7-E2F6-498C-8E90-D24ED0C44AC2}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8FDEE7-E2F6-498C-8E90-D24ED0C44AC2}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J4"/>
@@ -11340,20 +11078,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -11408,7 +11146,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11455,7 +11193,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11502,7 +11240,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11549,7 +11287,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11596,7 +11334,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11639,34 +11377,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C85066F-A70F-4EC6-96A2-3B11D71E8332}">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C85066F-A70F-4EC6-96A2-3B11D71E8332}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M7:M9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="46.85546875" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="46.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -11710,12 +11448,12 @@
         <v>35</v>
       </c>
     </row>
-    <row ht="45" r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11748,15 +11486,15 @@
         <v>10.5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>283</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -11789,15 +11527,15 @@
         <v>10.5</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -11830,17 +11568,17 @@
         <v>10.5</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EA94AF-A176-4725-8452-BA8E3503AAAB}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EA94AF-A176-4725-8452-BA8E3503AAAB}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J4"/>
@@ -11848,20 +11586,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -11916,7 +11654,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>254</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11963,7 +11701,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12010,7 +11748,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>256</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12057,7 +11795,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12104,7 +11842,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>258</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12147,13 +11885,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407A61CA-7BCD-4622-83EC-6EE78F45F1F1}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407A61CA-7BCD-4622-83EC-6EE78F45F1F1}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J4"/>
@@ -12161,20 +11899,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -12229,7 +11967,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>259</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12276,7 +12014,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12323,7 +12061,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>261</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12370,7 +12108,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12417,7 +12155,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>347</v>
+        <v>263</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12460,13 +12198,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846A7054-8630-44CB-A36C-72BF4E3BB15C}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846A7054-8630-44CB-A36C-72BF4E3BB15C}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J4"/>
@@ -12474,20 +12212,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -12542,7 +12280,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12589,7 +12327,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12636,7 +12374,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12683,7 +12421,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>351</v>
+        <v>267</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12730,7 +12468,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>268</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12773,6 +12511,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9326E784-503B-40FC-A73C-5CC7FF844EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A82B4E-3F43-49A6-9207-4394BB82C9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23100" yWindow="1005" windowWidth="17010" windowHeight="13935" firstSheet="4" activeTab="5" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}"/>
+    <workbookView xWindow="5880" yWindow="2550" windowWidth="17685" windowHeight="12930" firstSheet="1" activeTab="2" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="288">
   <si>
     <t>Result</t>
   </si>
@@ -909,6 +909,15 @@
   </si>
   <si>
     <t>Tue Apr 25 14:52:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Vantiv CPS Dual CF</t>
+  </si>
+  <si>
+    <t>usr612</t>
+  </si>
+  <si>
+    <t>pwd612</t>
   </si>
 </sst>
 </file>
@@ -10444,17 +10453,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F862F746-9284-4D5F-8449-DC04488EA2C6}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
     <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
     <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
@@ -10747,6 +10756,38 @@
         <v>12</v>
       </c>
       <c r="O6" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>612</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2">
+        <v>12</v>
+      </c>
+      <c r="O7" s="2">
         <v>2029</v>
       </c>
     </row>
@@ -11385,7 +11426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C85066F-A70F-4EC6-96A2-3B11D71E8332}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>

--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A82B4E-3F43-49A6-9207-4394BB82C9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D317E-4030-4E40-9F80-6FBCAE78079C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="2550" windowWidth="17685" windowHeight="12930" firstSheet="1" activeTab="2" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="290">
   <si>
     <t>Result</t>
   </si>
@@ -914,10 +914,16 @@
     <t>Vantiv CPS Dual CF</t>
   </si>
   <si>
-    <t>usr612</t>
-  </si>
-  <si>
-    <t>pwd612</t>
+    <t>user591</t>
+  </si>
+  <si>
+    <t>pwd591</t>
+  </si>
+  <si>
+    <t>user4494</t>
+  </si>
+  <si>
+    <t>pwd4494</t>
   </si>
 </sst>
 </file>
@@ -2243,7 +2249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F4B3B1-E8F7-45EE-B808-7340C74D1EA9}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -10456,7 +10462,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10767,13 +10773,22 @@
         <v>25</v>
       </c>
       <c r="E7" s="2">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>287</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4494</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>17</v>

--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D317E-4030-4E40-9F80-6FBCAE78079C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{646D317E-4030-4E40-9F80-6FBCAE78079C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}"/>
+    <workbookView activeTab="2" windowHeight="17640" windowWidth="29040" xWindow="-28920" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Auth" sheetId="1" r:id="rId1"/>
-    <sheet name="AuthCapture" sheetId="2" r:id="rId2"/>
-    <sheet name="Sale" sheetId="3" r:id="rId3"/>
-    <sheet name="Sale-Void" sheetId="4" r:id="rId4"/>
-    <sheet name="Sale-Credit" sheetId="5" r:id="rId5"/>
-    <sheet name="Sale-Unencrypted" sheetId="6" r:id="rId6"/>
-    <sheet name="Sale-ZeroDollar" sheetId="7" r:id="rId7"/>
-    <sheet name="Sale-Void-NoTranxID" sheetId="8" r:id="rId8"/>
-    <sheet name="Sale-Credit-Void" sheetId="9" r:id="rId9"/>
-    <sheet name="Auth-Cap-Void" sheetId="10" r:id="rId10"/>
-    <sheet name="Auth-Cap-Credit" sheetId="11" r:id="rId11"/>
-    <sheet name="Sale-Encrypted" sheetId="12" r:id="rId12"/>
-    <sheet name="Sale-MRF" sheetId="13" r:id="rId13"/>
-    <sheet name="Auth-MRF" sheetId="14" r:id="rId14"/>
-    <sheet name="Cap-MRF" sheetId="15" r:id="rId15"/>
-    <sheet name="Void-MRF" sheetId="16" r:id="rId16"/>
-    <sheet name="Credit-MRF" sheetId="17" r:id="rId17"/>
-    <sheet name="Sale-CardNotAccepted" sheetId="18" r:id="rId18"/>
-    <sheet name="Auth-CardNotAccepted" sheetId="19" r:id="rId19"/>
+    <sheet name="Auth" r:id="rId1" sheetId="1"/>
+    <sheet name="AuthCapture" r:id="rId2" sheetId="2"/>
+    <sheet name="Sale" r:id="rId3" sheetId="3"/>
+    <sheet name="Sale-Void" r:id="rId4" sheetId="4"/>
+    <sheet name="Sale-Credit" r:id="rId5" sheetId="5"/>
+    <sheet name="Sale-Unencrypted" r:id="rId6" sheetId="6"/>
+    <sheet name="Sale-ZeroDollar" r:id="rId7" sheetId="7"/>
+    <sheet name="Sale-Void-NoTranxID" r:id="rId8" sheetId="8"/>
+    <sheet name="Sale-Credit-Void" r:id="rId9" sheetId="9"/>
+    <sheet name="Auth-Cap-Void" r:id="rId10" sheetId="10"/>
+    <sheet name="Auth-Cap-Credit" r:id="rId11" sheetId="11"/>
+    <sheet name="Sale-Encrypted" r:id="rId12" sheetId="12"/>
+    <sheet name="Sale-MRF" r:id="rId13" sheetId="13"/>
+    <sheet name="Auth-MRF" r:id="rId14" sheetId="14"/>
+    <sheet name="Cap-MRF" r:id="rId15" sheetId="15"/>
+    <sheet name="Void-MRF" r:id="rId16" sheetId="16"/>
+    <sheet name="Credit-MRF" r:id="rId17" sheetId="17"/>
+    <sheet name="Sale-CardNotAccepted" r:id="rId18" sheetId="18"/>
+    <sheet name="Auth-CardNotAccepted" r:id="rId19" sheetId="19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3058" uniqueCount="295">
   <si>
     <t>Result</t>
   </si>
@@ -924,12 +924,28 @@
   </si>
   <si>
     <t>pwd4494</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Thu Jun 15 16:32:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Jun 15 16:32:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Jun 15 16:38:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Jun 15 16:42:31 EDT 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -978,24 +994,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1012,10 +1028,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1050,7 +1066,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1102,7 +1118,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1213,21 +1229,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1244,7 +1260,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1296,15 +1312,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3BF19-5985-4984-B3CC-B3E33E12951F}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3BF19-5985-4984-B3CC-B3E33E12951F}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
@@ -1312,20 +1328,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1611,8 +1627,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1620,8 +1636,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2359731-E4E5-4078-88F3-04F82A8C8041}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2359731-E4E5-4078-88F3-04F82A8C8041}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J4"/>
@@ -1629,20 +1645,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1928,13 +1944,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC99232A-9CA5-4149-85DE-BA29AA7848F2}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC99232A-9CA5-4149-85DE-BA29AA7848F2}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J4"/>
@@ -1942,20 +1958,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2241,13 +2257,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F4B3B1-E8F7-45EE-B808-7340C74D1EA9}">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F4B3B1-E8F7-45EE-B808-7340C74D1EA9}">
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
@@ -2255,25 +2271,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="46.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="46.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2336,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2367,7 +2383,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2414,7 +2430,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2462,13 +2478,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F3F3A8-CC55-49BE-B541-0DA825F10822}">
-  <dimension ref="A1:AY34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F3F3A8-CC55-49BE-B541-0DA825F10822}">
+  <dimension ref="A1:AZ34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -2476,24 +2492,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="28.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="2" collapsed="1"/>
-    <col min="13" max="13" width="9.140625" style="1" collapsed="1"/>
-    <col min="14" max="14" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="12" max="12" style="2" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" style="1" width="9.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="15" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="1" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +2664,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="2" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -2768,7 +2784,7 @@
       </c>
       <c r="AY2" s="4"/>
     </row>
-    <row r="3" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2888,7 +2904,7 @@
       </c>
       <c r="AY3" s="4"/>
     </row>
-    <row r="4" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -3008,7 +3024,7 @@
       </c>
       <c r="AY4" s="4"/>
     </row>
-    <row r="5" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -3128,7 +3144,7 @@
       </c>
       <c r="AY5" s="4"/>
     </row>
-    <row r="6" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="6" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3248,7 +3264,7 @@
       </c>
       <c r="AY6" s="4"/>
     </row>
-    <row r="7" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="7" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3368,7 +3384,7 @@
       </c>
       <c r="AY7" s="4"/>
     </row>
-    <row r="8" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="8" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3489,7 +3505,7 @@
       </c>
       <c r="AY8" s="4"/>
     </row>
-    <row r="9" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="9" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3610,7 +3626,7 @@
       </c>
       <c r="AY9" s="4"/>
     </row>
-    <row r="10" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="10" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -3731,7 +3747,7 @@
       </c>
       <c r="AY10" s="4"/>
     </row>
-    <row r="11" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="11" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -3851,7 +3867,7 @@
       </c>
       <c r="AY11" s="4"/>
     </row>
-    <row r="12" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="12" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -3971,7 +3987,7 @@
       </c>
       <c r="AY12" s="4"/>
     </row>
-    <row r="13" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="13" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4091,7 +4107,7 @@
       </c>
       <c r="AY13" s="4"/>
     </row>
-    <row r="14" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="14" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -4211,7 +4227,7 @@
       </c>
       <c r="AY14" s="4"/>
     </row>
-    <row r="15" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="15" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4331,7 +4347,7 @@
       </c>
       <c r="AY15" s="4"/>
     </row>
-    <row r="16" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="16" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4451,7 +4467,7 @@
       </c>
       <c r="AY16" s="4"/>
     </row>
-    <row r="17" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="17" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -4571,7 +4587,7 @@
       </c>
       <c r="AY17" s="4"/>
     </row>
-    <row r="18" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="18" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -4691,7 +4707,7 @@
       </c>
       <c r="AY18" s="4"/>
     </row>
-    <row r="19" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="19" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4811,7 +4827,7 @@
       </c>
       <c r="AY19" s="4"/>
     </row>
-    <row r="20" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="20" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4931,7 +4947,7 @@
       </c>
       <c r="AY20" s="4"/>
     </row>
-    <row r="21" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="21" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5051,7 +5067,7 @@
       </c>
       <c r="AY21" s="4"/>
     </row>
-    <row r="22" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="22" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -5171,7 +5187,7 @@
       </c>
       <c r="AY22" s="4"/>
     </row>
-    <row r="23" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="23" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -5291,7 +5307,7 @@
       </c>
       <c r="AY23" s="4"/>
     </row>
-    <row r="24" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="24" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -5411,7 +5427,7 @@
       </c>
       <c r="AY24" s="4"/>
     </row>
-    <row r="25" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="25" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -5531,7 +5547,7 @@
       </c>
       <c r="AY25" s="4"/>
     </row>
-    <row r="26" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="26" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -5651,7 +5667,7 @@
       </c>
       <c r="AY26" s="4"/>
     </row>
-    <row r="27" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="27" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -5771,7 +5787,7 @@
       </c>
       <c r="AY27" s="4"/>
     </row>
-    <row r="28" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="28" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -5891,7 +5907,7 @@
       </c>
       <c r="AY28" s="4"/>
     </row>
-    <row r="29" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="29" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -6011,7 +6027,7 @@
       </c>
       <c r="AY29" s="4"/>
     </row>
-    <row r="30" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="30" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -6131,7 +6147,7 @@
       </c>
       <c r="AY30" s="4"/>
     </row>
-    <row r="31" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="31" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -6251,7 +6267,7 @@
       </c>
       <c r="AY31" s="4"/>
     </row>
-    <row r="32" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="32" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -6371,7 +6387,7 @@
       </c>
       <c r="AY32" s="4"/>
     </row>
-    <row r="33" spans="1:51" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="33" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -6495,14 +6511,14 @@
       <c r="L34" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EF3280-CA4E-46F2-B2B8-2F43A765033A}">
-  <dimension ref="A1:V34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EF3280-CA4E-46F2-B2B8-2F43A765033A}">
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -6510,23 +6526,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="28.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="2" collapsed="1"/>
-    <col min="13" max="14" width="11.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="12" max="12" style="2" width="9.140625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
+    <col min="15" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6594,7 +6610,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -6659,7 +6675,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="3" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -6724,7 +6740,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="4" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -6789,7 +6805,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="5" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -6854,7 +6870,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="6" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -6919,7 +6935,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="7" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -6984,7 +7000,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="8" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -7050,7 +7066,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="9" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -7116,7 +7132,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="10" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -7182,7 +7198,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="11" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -7247,7 +7263,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="12" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -7312,7 +7328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="13" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -7377,7 +7393,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="14" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -7442,7 +7458,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="15" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -7507,7 +7523,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="16" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -7572,7 +7588,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="17" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -7637,7 +7653,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="18" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -7702,7 +7718,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="19" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -7767,7 +7783,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="20" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -7832,7 +7848,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="21" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -7897,7 +7913,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="22" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -7962,7 +7978,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="23" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -8027,7 +8043,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="24" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -8092,7 +8108,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="25" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -8157,7 +8173,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="26" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -8222,7 +8238,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="27" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -8287,7 +8303,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="28" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -8352,7 +8368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="29" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -8417,7 +8433,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="30" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -8482,7 +8498,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="31" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -8547,7 +8563,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="32" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>130</v>
       </c>
@@ -8612,7 +8628,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="33" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -8681,13 +8697,13 @@
       <c r="L34" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BA243B-4AA6-4B80-8D83-694CE3832665}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BA243B-4AA6-4B80-8D83-694CE3832665}">
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -8695,21 +8711,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="28.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="13" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8750,7 +8766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -8788,7 +8804,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="3" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -8826,7 +8842,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="4" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -8865,7 +8881,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -8903,7 +8919,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -9059,13 +9075,13 @@
       <c r="I10" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9035B600-1AE4-4F39-B9B0-C3B647778074}">
-  <dimension ref="A1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9035B600-1AE4-4F39-B9B0-C3B647778074}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -9073,21 +9089,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="28.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="13" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9125,7 +9141,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -9160,7 +9176,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="3" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -9195,7 +9211,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="4" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -9231,7 +9247,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -9375,13 +9391,13 @@
       <c r="I9" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D985158-3685-4E06-8AAF-5C6291ED2A2E}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D985158-3685-4E06-8AAF-5C6291ED2A2E}">
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -9389,21 +9405,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="28.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="13" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9444,7 +9460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="2" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -9482,7 +9498,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="3" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -9520,7 +9536,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="4" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -9559,7 +9575,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -9597,7 +9613,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -9753,13 +9769,13 @@
       <c r="I10" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A3FE28-6D3A-468C-B453-4E8625D9142D}">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A3FE28-6D3A-468C-B453-4E8625D9142D}">
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
@@ -9767,20 +9783,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -9945,13 +9961,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C12825-4D21-4476-8848-6E435EC04842}">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C12825-4D21-4476-8848-6E435EC04842}">
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
@@ -9959,20 +9975,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="30.5703125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -10137,13 +10153,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77641590-759F-4E9F-886E-0EE016894C97}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77641590-759F-4E9F-886E-0EE016894C97}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -10151,20 +10167,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -10450,7 +10466,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -10458,8 +10474,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F862F746-9284-4D5F-8449-DC04488EA2C6}">
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F862F746-9284-4D5F-8449-DC04488EA2C6}">
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
@@ -10467,20 +10483,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -10532,10 +10548,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10579,10 +10595,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10807,13 +10823,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD14A431-43B3-4E34-B368-8DDA4A423BE8}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD14A431-43B3-4E34-B368-8DDA4A423BE8}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -10821,20 +10837,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -11120,13 +11136,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8FDEE7-E2F6-498C-8E90-D24ED0C44AC2}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8FDEE7-E2F6-498C-8E90-D24ED0C44AC2}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J4"/>
@@ -11134,20 +11150,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -11433,13 +11449,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C85066F-A70F-4EC6-96A2-3B11D71E8332}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C85066F-A70F-4EC6-96A2-3B11D71E8332}">
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
@@ -11447,20 +11463,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="46.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="46.85546875" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -11504,7 +11520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -11545,7 +11561,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -11586,7 +11602,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -11628,13 +11644,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EA94AF-A176-4725-8452-BA8E3503AAAB}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EA94AF-A176-4725-8452-BA8E3503AAAB}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J4"/>
@@ -11642,20 +11658,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -11941,13 +11957,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407A61CA-7BCD-4622-83EC-6EE78F45F1F1}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407A61CA-7BCD-4622-83EC-6EE78F45F1F1}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J4"/>
@@ -11955,20 +11971,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -12254,13 +12270,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846A7054-8630-44CB-A36C-72BF4E3BB15C}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846A7054-8630-44CB-A36C-72BF4E3BB15C}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J4"/>
@@ -12268,20 +12284,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="2" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="2" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -12567,6 +12583,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{646D317E-4030-4E40-9F80-6FBCAE78079C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FCDE6067-6DD8-4454-840D-79F3834ACE5A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="17640" windowWidth="29040" xWindow="-28920" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}" yWindow="-120"/>
+    <workbookView activeTab="19" firstSheet="11" windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" r:id="rId1" sheetId="1"/>
@@ -32,6 +32,7 @@
     <sheet name="Credit-MRF" r:id="rId17" sheetId="17"/>
     <sheet name="Sale-CardNotAccepted" r:id="rId18" sheetId="18"/>
     <sheet name="Auth-CardNotAccepted" r:id="rId19" sheetId="19"/>
+    <sheet name="CreditClient" r:id="rId20" sheetId="20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3058" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="294">
   <si>
     <t>Result</t>
   </si>
@@ -773,12 +774,6 @@
     <t>Tue Apr 25 14:03:39 EDT 2023</t>
   </si>
   <si>
-    <t>Tue Apr 25 14:04:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 14:04:15 EDT 2023</t>
-  </si>
-  <si>
     <t>Tue Apr 25 14:04:29 EDT 2023</t>
   </si>
   <si>
@@ -926,19 +921,22 @@
     <t>pwd4494</t>
   </si>
   <si>
+    <t>Thu Jun 15 16:32:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Jun 15 16:42:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>RemID</t>
+  </si>
+  <si>
+    <t>dsfsdf46346543</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Thu Jun 15 16:32:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Jun 15 16:32:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Jun 15 16:38:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Jun 15 16:42:31 EDT 2023</t>
+    <t>Wed Jul 12 09:51:58 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1321,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,7 +1711,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1760,7 +1758,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1807,7 +1805,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1854,7 +1852,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1901,7 +1899,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2026,7 +2024,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2073,7 +2071,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2120,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2167,7 +2165,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2214,7 +2212,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2341,7 +2339,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2388,7 +2386,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -2435,7 +2433,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -10473,11 +10471,108 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DCF843-7CC4-48A5-8072-F1A801B90CE0}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="21.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="21.42578125" collapsed="false"/>
+    <col min="10" max="10" style="2" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" style="1" width="9.140625" collapsed="true"/>
+    <col min="12" max="17" style="2" width="9.140625" collapsed="false"/>
+    <col min="18" max="16384" style="2" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="2">
+        <v>234</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F862F746-9284-4D5F-8449-DC04488EA2C6}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -10551,7 +10646,7 @@
         <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10598,7 +10693,7 @@
         <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10645,7 +10740,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -10692,7 +10787,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -10739,7 +10834,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -10783,7 +10878,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
@@ -10792,19 +10887,19 @@
         <v>591</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H7" s="2">
         <v>4494</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>17</v>
@@ -10905,7 +11000,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10952,7 +11047,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10999,7 +11094,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11046,7 +11141,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11093,7 +11188,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11145,7 +11240,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11218,7 +11313,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11265,7 +11360,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11312,7 +11407,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11359,7 +11454,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11406,7 +11501,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11525,7 +11620,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11566,7 +11661,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -11607,7 +11702,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -11726,7 +11821,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11773,7 +11868,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11820,7 +11915,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11867,7 +11962,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11914,7 +12009,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12039,7 +12134,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12086,7 +12181,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12133,7 +12228,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12180,7 +12275,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12227,7 +12322,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12352,7 +12447,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12399,7 +12494,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12446,7 +12541,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12493,7 +12588,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12540,7 +12635,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>

--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{FCDE6067-6DD8-4454-840D-79F3834ACE5A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D96B97DE-22D2-49C7-B2EE-7B13F16F07D1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="19" firstSheet="11" windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}" yWindow="-120"/>
+    <workbookView activeTab="7" firstSheet="1" tabRatio="887" windowHeight="14565" windowWidth="18810" xWindow="4410" xr2:uid="{D3A86137-2393-48B3-A2A1-24E657E7CF34}" yWindow="1665"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" r:id="rId1" sheetId="1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="299">
   <si>
     <t>Result</t>
   </si>
@@ -780,9 +780,6 @@
     <t>Tue Apr 25 14:04:42 EDT 2023</t>
   </si>
   <si>
-    <t>Tue Apr 25 14:04:56 EDT 2023</t>
-  </si>
-  <si>
     <t>Tue Apr 25 14:05:10 EDT 2023</t>
   </si>
   <si>
@@ -795,9 +792,6 @@
     <t>Tue Apr 25 14:06:18 EDT 2023</t>
   </si>
   <si>
-    <t>Tue Apr 25 14:06:43 EDT 2023</t>
-  </si>
-  <si>
     <t>Tue Apr 25 14:07:07 EDT 2023</t>
   </si>
   <si>
@@ -810,9 +804,6 @@
     <t>Tue Apr 25 14:08:24 EDT 2023</t>
   </si>
   <si>
-    <t>Tue Apr 25 14:08:52 EDT 2023</t>
-  </si>
-  <si>
     <t>Tue Apr 25 14:10:00 EDT 2023</t>
   </si>
   <si>
@@ -840,9 +831,6 @@
     <t>Tue Apr 25 14:12:11 EDT 2023</t>
   </si>
   <si>
-    <t>Tue Apr 25 14:12:35 EDT 2023</t>
-  </si>
-  <si>
     <t>Tue Apr 25 14:12:59 EDT 2023</t>
   </si>
   <si>
@@ -897,15 +885,6 @@
     <t>Tue Apr 25 14:21:59 EDT 2023</t>
   </si>
   <si>
-    <t>Tue Apr 25 14:52:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 14:52:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 14:52:42 EDT 2023</t>
-  </si>
-  <si>
     <t>Vantiv CPS Dual CF</t>
   </si>
   <si>
@@ -933,10 +912,46 @@
     <t>dsfsdf46346543</t>
   </si>
   <si>
+    <t>Wed Jul 12 09:51:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>4761739001010135</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:13:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:14:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:22:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:29:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:33:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:34:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:34:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:37:04 EST 2023</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Wed Jul 12 09:51:58 EDT 2023</t>
+    <t>Tue Dec 12 15:42:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:43:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:43:18 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1726,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1758,7 +1773,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1805,7 +1820,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1852,7 +1867,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1899,7 +1914,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2024,7 +2039,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2071,7 +2086,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2118,7 +2133,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2165,7 +2180,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2212,7 +2227,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2339,7 +2354,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2386,7 +2401,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -2433,7 +2448,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -10475,7 +10490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DCF843-7CC4-48A5-8072-F1A801B90CE0}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -10485,15 +10500,14 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
     <col min="4" max="4" style="2" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="21.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="2" width="21.0" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="2" width="12.140625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="2" width="14.140625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="21.42578125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
     <col min="10" max="10" style="2" width="9.140625" collapsed="true"/>
     <col min="11" max="11" style="1" width="9.140625" collapsed="true"/>
-    <col min="12" max="17" style="2" width="9.140625" collapsed="false"/>
-    <col min="18" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="12" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -10510,7 +10524,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>111</v>
@@ -10536,13 +10550,13 @@
         <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F2" s="2">
         <v>234</v>
@@ -10572,8 +10586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F862F746-9284-4D5F-8449-DC04488EA2C6}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10646,7 +10660,7 @@
         <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10693,7 +10707,7 @@
         <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10834,7 +10848,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -10877,8 +10891,14 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>288</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
@@ -10887,19 +10907,19 @@
         <v>591</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H7" s="2">
         <v>4494</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>17</v>
@@ -10908,7 +10928,7 @@
         <v>10.5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="N7" s="2">
         <v>12</v>
@@ -10927,7 +10947,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11000,7 +11020,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11047,7 +11067,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11094,7 +11114,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11141,7 +11161,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11185,10 +11205,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11221,7 +11241,7 @@
         <v>10.5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="N6" s="2">
         <v>12</v>
@@ -11240,7 +11260,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11313,7 +11333,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11360,7 +11380,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11407,7 +11427,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11454,7 +11474,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11501,7 +11521,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11552,7 +11572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C85066F-A70F-4EC6-96A2-3B11D71E8332}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -11620,7 +11640,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11661,7 +11681,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -11702,7 +11722,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -11821,7 +11841,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11868,7 +11888,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11915,7 +11935,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11962,7 +11982,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12009,7 +12029,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12060,8 +12080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407A61CA-7BCD-4622-83EC-6EE78F45F1F1}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12134,7 +12154,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12181,7 +12201,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12228,7 +12248,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12275,7 +12295,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12319,10 +12339,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12447,7 +12467,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12494,7 +12514,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12541,7 +12561,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12588,7 +12608,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12635,7 +12655,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>

--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="455">
   <si>
     <t>Result</t>
   </si>
@@ -952,6 +952,474 @@
   </si>
   <si>
     <t>Tue Dec 12 15:43:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:30:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:30:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:31:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:31:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:31:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:32:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:32:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:32:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:33:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:33:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:35:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:36:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:36:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:36:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:36:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:37:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:37:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:37:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:38:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:38:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:39:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:39:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:39:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:40:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:40:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:41:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:41:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:42:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:42:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:42:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:42:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:43:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:43:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:43:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:43:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:44:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:44:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:45:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:45:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:46:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:46:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:47:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:47:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:48:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:49:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:50:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:50:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:51:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:51:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:52:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:53:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:53:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:54:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:54:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:55:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:55:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:56:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:56:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:57:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:57:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:58:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:59:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 23:59:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:00:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:01:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:02:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:02:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:03:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:04:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:04:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:05:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:06:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:07:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:07:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:08:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:09:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:09:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:10:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:11:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:11:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:12:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:13:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:14:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:14:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:15:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:16:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:16:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:17:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:18:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:19:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:19:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:19:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:20:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:20:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:20:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:21:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:21:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:22:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:22:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:22:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:23:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:23:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:23:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:24:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:24:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:25:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:25:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:25:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:26:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:26:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:26:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:27:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:27:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:27:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:28:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:28:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:29:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:29:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:29:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:30:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:30:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:30:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:31:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:31:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:31:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:31:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:31:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:32:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:32:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:32:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:32:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:32:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:33:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:33:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:33:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:33:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:33:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:34:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:34:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:34:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:34:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:35:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:35:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:35:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:10:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:10:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:10:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:11:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:11:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:11:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 20 17:54:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 20 17:55:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 20 17:55:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 20 17:55:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 20 17:56:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 20 17:56:21 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1877,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1456,7 +1924,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1503,7 +1971,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1550,7 +2018,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1597,7 +2065,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1726,7 +2194,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1773,7 +2241,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1820,7 +2288,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>345</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1867,7 +2335,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>346</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1914,7 +2382,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2039,7 +2507,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2086,7 +2554,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2133,7 +2601,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2180,7 +2648,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2227,7 +2695,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2354,7 +2822,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2401,7 +2869,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -2448,7 +2916,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -2679,10 +3147,10 @@
     </row>
     <row customFormat="1" ht="45" r="2" s="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>356</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -2802,7 +3270,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>357</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -2922,7 +3390,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -3042,7 +3510,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -3162,7 +3630,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>360</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -3282,7 +3750,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>361</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -3402,7 +3870,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>362</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -3523,7 +3991,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>363</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -3644,7 +4112,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -3765,7 +4233,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>365</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -3885,7 +4353,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -4005,7 +4473,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>367</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -4125,7 +4593,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>368</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -4245,7 +4713,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>369</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -4365,7 +4833,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>370</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -4485,7 +4953,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>371</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -4605,7 +5073,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -4725,7 +5193,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>373</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -4845,7 +5313,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -4965,7 +5433,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -5085,7 +5553,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>376</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -5205,7 +5673,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
@@ -5325,7 +5793,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -5445,7 +5913,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -5565,7 +6033,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
@@ -5685,7 +6153,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -5805,7 +6273,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -5925,7 +6393,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -6045,7 +6513,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -6165,7 +6633,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>385</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
@@ -6285,7 +6753,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>386</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
@@ -6405,7 +6873,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
@@ -6625,10 +7093,10 @@
     </row>
     <row customFormat="1" ht="30" r="2" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>388</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -6690,10 +7158,10 @@
     </row>
     <row customFormat="1" ht="30" r="3" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>389</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -6755,10 +7223,10 @@
     </row>
     <row customFormat="1" ht="30" r="4" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>390</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -6820,10 +7288,10 @@
     </row>
     <row customFormat="1" ht="30" r="5" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>391</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -6885,10 +7353,10 @@
     </row>
     <row customFormat="1" ht="30" r="6" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>392</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -6950,10 +7418,10 @@
     </row>
     <row customFormat="1" ht="30" r="7" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>393</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -7015,10 +7483,10 @@
     </row>
     <row customFormat="1" ht="30" r="8" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>394</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -7081,10 +7549,10 @@
     </row>
     <row customFormat="1" ht="30" r="9" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -7147,10 +7615,10 @@
     </row>
     <row customFormat="1" ht="30" r="10" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>396</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -7213,10 +7681,10 @@
     </row>
     <row customFormat="1" ht="30" r="11" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>397</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -7278,10 +7746,10 @@
     </row>
     <row customFormat="1" ht="30" r="12" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>398</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -7343,10 +7811,10 @@
     </row>
     <row customFormat="1" ht="30" r="13" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>399</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -7408,10 +7876,10 @@
     </row>
     <row customFormat="1" ht="30" r="14" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -7473,10 +7941,10 @@
     </row>
     <row customFormat="1" ht="30" r="15" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>401</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -7538,10 +8006,10 @@
     </row>
     <row customFormat="1" ht="30" r="16" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>402</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -7603,10 +8071,10 @@
     </row>
     <row customFormat="1" ht="30" r="17" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>403</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -7668,10 +8136,10 @@
     </row>
     <row customFormat="1" ht="30" r="18" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>404</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -7733,10 +8201,10 @@
     </row>
     <row customFormat="1" ht="30" r="19" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>405</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -7798,10 +8266,10 @@
     </row>
     <row customFormat="1" ht="30" r="20" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>406</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -7863,10 +8331,10 @@
     </row>
     <row customFormat="1" ht="30" r="21" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>407</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -7928,10 +8396,10 @@
     </row>
     <row customFormat="1" ht="30" r="22" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>408</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -7993,10 +8461,10 @@
     </row>
     <row customFormat="1" ht="30" r="23" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>409</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
@@ -8058,10 +8526,10 @@
     </row>
     <row customFormat="1" ht="30" r="24" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>410</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -8123,10 +8591,10 @@
     </row>
     <row customFormat="1" ht="30" r="25" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>411</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -8188,10 +8656,10 @@
     </row>
     <row customFormat="1" ht="30" r="26" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>412</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
@@ -8253,10 +8721,10 @@
     </row>
     <row customFormat="1" ht="30" r="27" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>413</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -8318,10 +8786,10 @@
     </row>
     <row customFormat="1" ht="30" r="28" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>414</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -8383,10 +8851,10 @@
     </row>
     <row customFormat="1" ht="30" r="29" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>415</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -8448,10 +8916,10 @@
     </row>
     <row customFormat="1" ht="30" r="30" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>416</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -8513,10 +8981,10 @@
     </row>
     <row customFormat="1" ht="30" r="31" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>417</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
@@ -8578,10 +9046,10 @@
     </row>
     <row customFormat="1" ht="30" r="32" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>418</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
@@ -8643,10 +9111,10 @@
     </row>
     <row customFormat="1" ht="30" r="33" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>194</v>
+        <v>419</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
@@ -8781,10 +9249,10 @@
     </row>
     <row customFormat="1" ht="30" r="2" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>420</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -8819,10 +9287,10 @@
     </row>
     <row customFormat="1" ht="30" r="3" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>421</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -8857,10 +9325,10 @@
     </row>
     <row customFormat="1" ht="30" r="4" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>422</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -8896,10 +9364,10 @@
     </row>
     <row customFormat="1" r="5" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>423</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -8934,10 +9402,10 @@
     </row>
     <row customFormat="1" r="6" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>424</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -8972,10 +9440,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -9010,10 +9478,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>426</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -9048,10 +9516,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>427</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -9156,10 +9624,10 @@
     </row>
     <row customFormat="1" ht="30" r="2" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>428</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -9191,10 +9659,10 @@
     </row>
     <row customFormat="1" ht="30" r="3" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>429</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -9226,10 +9694,10 @@
     </row>
     <row customFormat="1" ht="30" r="4" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>430</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -9262,10 +9730,10 @@
     </row>
     <row customFormat="1" r="5" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>431</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -9297,10 +9765,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>432</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -9332,10 +9800,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>433</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -9367,10 +9835,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>434</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -9475,10 +9943,10 @@
     </row>
     <row customFormat="1" ht="30" r="2" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>435</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -9513,10 +9981,10 @@
     </row>
     <row customFormat="1" ht="30" r="3" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>436</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -9551,10 +10019,10 @@
     </row>
     <row customFormat="1" ht="30" r="4" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>437</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -9590,10 +10058,10 @@
     </row>
     <row customFormat="1" r="5" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>438</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -9628,10 +10096,10 @@
     </row>
     <row customFormat="1" r="6" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>439</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -9666,10 +10134,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>440</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -9704,10 +10172,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>441</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -9742,10 +10210,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>442</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -9861,10 +10329,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>446</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>129</v>
@@ -9899,10 +10367,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>447</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>129</v>
@@ -9937,10 +10405,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>448</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>129</v>
@@ -10053,10 +10521,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>443</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>129</v>
@@ -10091,10 +10559,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>444</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>129</v>
@@ -10129,10 +10597,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>445</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>129</v>
@@ -10248,7 +10716,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10295,7 +10763,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10342,7 +10810,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -10389,7 +10857,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -10436,7 +10904,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>308</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -10657,10 +11125,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10704,10 +11172,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>450</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10754,7 +11222,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>451</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -10801,7 +11269,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>452</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -10848,7 +11316,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>453</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -10895,7 +11363,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>454</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>276</v>
@@ -11020,7 +11488,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11067,7 +11535,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11114,7 +11582,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11161,7 +11629,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11205,10 +11673,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11333,7 +11801,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>320</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11380,7 +11848,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11427,7 +11895,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11474,7 +11942,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>323</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11521,7 +11989,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11640,7 +12108,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11681,7 +12149,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -11722,7 +12190,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -11841,7 +12309,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11888,7 +12356,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11935,7 +12403,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>330</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11982,7 +12450,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12029,7 +12497,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>332</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12154,7 +12622,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>333</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12201,7 +12669,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12248,7 +12716,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12295,7 +12763,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12339,10 +12807,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12467,7 +12935,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12514,7 +12982,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12561,7 +13029,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12608,7 +13076,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>341</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12655,7 +13123,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>

--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="512">
   <si>
     <t>Result</t>
   </si>
@@ -1420,6 +1420,177 @@
   </si>
   <si>
     <t>Mon May 20 17:56:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 18:57:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 18:57:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 18:57:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 18:57:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 18:58:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 18:58:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 18:59:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 18:59:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 18:59:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:00:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:00:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:01:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:01:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:01:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:02:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:02:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:02:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:03:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:03:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:04:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:04:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:05:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:05:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:06:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:06:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:07:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:07:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:08:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:08:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:08:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:09:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:09:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:09:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:10:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:10:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:10:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:11:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:11:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:12:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:12:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:13:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:14:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:14:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:15:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:16:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:16:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:17:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:18:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:18:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:19:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:19:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:20:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:21:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:21:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:22:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:22:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:23:02 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +2048,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>455</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1924,7 +2095,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>456</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1971,7 +2142,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>457</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2018,7 +2189,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>458</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2065,7 +2236,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>459</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2194,7 +2365,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>499</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2241,7 +2412,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>500</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2288,7 +2459,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>501</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2335,7 +2506,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>346</v>
+        <v>502</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2382,7 +2553,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>347</v>
+        <v>503</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2507,7 +2678,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>504</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2554,7 +2725,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>505</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2601,7 +2772,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>506</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2648,7 +2819,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>351</v>
+        <v>507</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2695,7 +2866,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>508</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2822,7 +2993,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>509</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2869,7 +3040,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>354</v>
+        <v>510</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -2916,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>511</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -10716,7 +10887,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>460</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10763,7 +10934,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>461</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10810,7 +10981,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>462</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -10857,7 +11028,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>463</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -10904,7 +11075,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>464</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11128,7 +11299,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11175,7 +11346,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11222,7 +11393,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11269,7 +11440,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11316,7 +11487,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11363,7 +11534,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>276</v>
@@ -11488,7 +11659,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>471</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11535,7 +11706,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>472</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11582,7 +11753,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>473</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11629,7 +11800,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>474</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11676,7 +11847,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>475</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11801,7 +11972,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>476</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11848,7 +12019,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>477</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11895,7 +12066,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>478</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11942,7 +12113,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>479</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11989,7 +12160,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>480</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12108,7 +12279,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>481</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12149,7 +12320,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>326</v>
+        <v>482</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -12190,7 +12361,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>327</v>
+        <v>483</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -12309,7 +12480,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>484</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12356,7 +12527,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>485</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12403,7 +12574,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>486</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12450,7 +12621,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>487</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12497,7 +12668,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>488</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12622,7 +12793,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>489</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12669,7 +12840,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>490</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12716,7 +12887,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>491</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12763,7 +12934,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>492</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12810,7 +12981,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>493</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12935,7 +13106,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>494</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12982,7 +13153,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>495</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -13029,7 +13200,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>496</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -13076,7 +13247,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>497</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -13123,7 +13294,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>498</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>

--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5026" uniqueCount="787">
   <si>
     <t>Result</t>
   </si>
@@ -1591,6 +1591,831 @@
   </si>
   <si>
     <t>Mon May 27 19:23:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 22:42:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 22:45:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 22:47:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 22:49:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 22:49:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 22:50:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 22:52:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 22:56:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:01:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:01:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:01:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:03:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:05:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:07:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:08:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:08:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:08:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:12:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:17:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:21:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:21:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:21:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:26:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:28:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:32:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:33:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:33:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:35:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:35:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:35:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:35:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:35:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:35:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:35:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:35:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:39:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:44:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:48:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:48:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:48:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:55:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:02:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:06:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:06:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:06:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:13:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:15:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:20:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:20:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:20:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:27:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:31:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:33:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:33:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:33:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:33:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:33:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:33:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:34:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:34:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:34:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:34:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:34:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:34:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:35:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:35:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:35:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:35:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:35:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:35:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:35:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:36:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:36:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:36:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:36:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:36:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:36:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:37:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:37:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:37:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:37:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:37:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:37:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:38:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:38:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:38:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:38:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:38:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:38:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:38:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:39:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:40:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:34:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:34:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:34:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:34:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:34:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:34:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 12:50:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:23:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:23:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:23:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:23:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:23:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:23:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:23:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:23:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:23:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:24:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:24:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:24:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:24:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:24:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:24:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:24:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:24:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:24:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:24:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:24:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:24:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:24:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:25:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:25:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:25:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:25:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:25:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:25:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:25:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:25:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:25:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:25:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:25:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:25:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:25:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:26:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:27:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:27:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:28:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:28:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:28:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:28:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:28:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:29:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:29:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:29:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:29:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:29:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:30:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:30:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:30:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:30:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:30:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:30:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:30:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:30:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:26:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:26:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:27:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:27:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:27:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:29:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:29:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:30:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:30:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:30:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:51:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:52:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:52:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:52:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:52:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:52:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:52:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:52:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:53:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:53:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:53:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:53:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:53:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:53:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:53:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:54:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:54:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:54:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:54:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:54:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:54:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:55:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:55:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:55:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:55:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:55:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:56:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:56:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:56:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:56:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:56:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:56:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:56:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:56:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:56:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:57:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:57:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:57:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:57:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:57:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:58:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:58:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:58:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:58:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:59:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:59:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 17:59:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:00:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:00:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:00:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:00:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:01:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:01:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:01:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:01:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:01:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:01:53 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -2048,7 +2873,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>730</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2095,7 +2920,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>731</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2142,7 +2967,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>732</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2189,7 +3014,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>733</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2236,7 +3061,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>459</v>
+        <v>734</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2365,7 +3190,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>774</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2412,7 +3237,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>775</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2459,7 +3284,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>501</v>
+        <v>776</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2506,7 +3331,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>502</v>
+        <v>777</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2553,7 +3378,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>503</v>
+        <v>778</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2678,7 +3503,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>504</v>
+        <v>779</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2725,7 +3550,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>505</v>
+        <v>780</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2772,7 +3597,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>781</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2819,7 +3644,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>507</v>
+        <v>782</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -2866,7 +3691,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>508</v>
+        <v>783</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -2993,7 +3818,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>784</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -3040,7 +3865,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>785</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -3087,7 +3912,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>786</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -3321,7 +4146,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>569</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -3441,7 +4266,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>570</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -3561,7 +4386,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -3681,7 +4506,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>572</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -3801,7 +4626,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>573</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -3921,7 +4746,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>574</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -4041,7 +4866,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>362</v>
+        <v>575</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -4162,7 +4987,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -4283,7 +5108,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>577</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -4404,7 +5229,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>365</v>
+        <v>578</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -4524,7 +5349,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>579</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -4644,7 +5469,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>580</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -4764,7 +5589,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>581</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -4884,7 +5709,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>582</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -5004,7 +5829,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>583</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -5124,7 +5949,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>371</v>
+        <v>584</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -5244,7 +6069,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>585</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -5364,7 +6189,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>373</v>
+        <v>586</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -5484,7 +6309,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>374</v>
+        <v>587</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -5604,7 +6429,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>375</v>
+        <v>588</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -5724,7 +6549,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>376</v>
+        <v>589</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -5844,7 +6669,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>377</v>
+        <v>590</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
@@ -5964,7 +6789,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>591</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -6084,7 +6909,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>379</v>
+        <v>592</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -6204,7 +7029,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>380</v>
+        <v>593</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
@@ -6324,7 +7149,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>381</v>
+        <v>594</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -6444,7 +7269,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>382</v>
+        <v>595</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -6564,7 +7389,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>383</v>
+        <v>596</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -6684,7 +7509,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>384</v>
+        <v>597</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -6804,7 +7629,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>385</v>
+        <v>598</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
@@ -6924,7 +7749,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>599</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
@@ -7044,7 +7869,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>387</v>
+        <v>600</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
@@ -7267,7 +8092,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>601</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -7332,7 +8157,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>602</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -7397,7 +8222,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>603</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -7462,7 +8287,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>604</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -7527,7 +8352,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>392</v>
+        <v>605</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -7592,7 +8417,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>393</v>
+        <v>606</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -7657,7 +8482,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>394</v>
+        <v>607</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -7723,7 +8548,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>395</v>
+        <v>608</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -7789,7 +8614,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>396</v>
+        <v>609</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -7855,7 +8680,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>397</v>
+        <v>610</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -7920,7 +8745,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>398</v>
+        <v>611</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -7985,7 +8810,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
+        <v>612</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -8050,7 +8875,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>400</v>
+        <v>613</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -8115,7 +8940,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>401</v>
+        <v>614</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -8180,7 +9005,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>402</v>
+        <v>615</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -8242,10 +9067,10 @@
     </row>
     <row customFormat="1" ht="30" r="17" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>403</v>
+        <v>616</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -8310,7 +9135,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>404</v>
+        <v>617</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -8375,7 +9200,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>405</v>
+        <v>618</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -8437,10 +9262,10 @@
     </row>
     <row customFormat="1" ht="30" r="20" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>406</v>
+        <v>619</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -8505,7 +9330,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>407</v>
+        <v>620</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -8570,7 +9395,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>408</v>
+        <v>621</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -8635,7 +9460,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>409</v>
+        <v>622</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
@@ -8700,7 +9525,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>410</v>
+        <v>623</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -8765,7 +9590,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>411</v>
+        <v>624</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -8830,7 +9655,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>412</v>
+        <v>625</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
@@ -8895,7 +9720,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>413</v>
+        <v>626</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -8960,7 +9785,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>414</v>
+        <v>627</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -9025,7 +9850,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>415</v>
+        <v>628</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -9090,7 +9915,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>416</v>
+        <v>629</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -9155,7 +9980,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>417</v>
+        <v>630</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
@@ -9220,7 +10045,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>418</v>
+        <v>631</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
@@ -9285,7 +10110,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>419</v>
+        <v>632</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
@@ -9420,10 +10245,10 @@
     </row>
     <row customFormat="1" ht="30" r="2" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>633</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -9461,7 +10286,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>634</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -9499,7 +10324,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>635</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -9538,7 +10363,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>636</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -9573,10 +10398,10 @@
     </row>
     <row customFormat="1" r="6" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>637</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -9614,7 +10439,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>638</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -9652,7 +10477,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>639</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -9690,7 +10515,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>640</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -9795,10 +10620,10 @@
     </row>
     <row customFormat="1" ht="30" r="2" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>641</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -9830,10 +10655,10 @@
     </row>
     <row customFormat="1" ht="30" r="3" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>642</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -9865,10 +10690,10 @@
     </row>
     <row customFormat="1" ht="30" r="4" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>643</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -9904,7 +10729,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>644</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -9939,7 +10764,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>645</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -9971,10 +10796,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>646</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -10009,7 +10834,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>647</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -10114,10 +10939,10 @@
     </row>
     <row customFormat="1" ht="30" r="2" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>435</v>
+        <v>648</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -10155,7 +10980,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>649</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -10193,7 +11018,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>437</v>
+        <v>650</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -10232,7 +11057,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>651</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -10270,7 +11095,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>652</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -10305,10 +11130,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>440</v>
+        <v>653</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -10346,7 +11171,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>441</v>
+        <v>654</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -10384,7 +11209,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>442</v>
+        <v>655</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -10503,7 +11328,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>659</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>129</v>
@@ -10541,7 +11366,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>660</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>129</v>
@@ -10579,7 +11404,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>448</v>
+        <v>661</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>129</v>
@@ -10692,10 +11517,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>656</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>129</v>
@@ -10733,7 +11558,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>657</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>129</v>
@@ -10771,7 +11596,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>658</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>129</v>
@@ -10887,7 +11712,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>735</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -10934,7 +11759,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>461</v>
+        <v>736</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -10981,7 +11806,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>737</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11028,7 +11853,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>738</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11075,7 +11900,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>464</v>
+        <v>739</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11299,7 +12124,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>740</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11346,7 +12171,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>466</v>
+        <v>741</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11393,7 +12218,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>742</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11440,7 +12265,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>468</v>
+        <v>743</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11487,7 +12312,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>469</v>
+        <v>744</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11534,7 +12359,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>470</v>
+        <v>745</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>276</v>
@@ -11659,7 +12484,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>471</v>
+        <v>746</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11706,7 +12531,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>472</v>
+        <v>747</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11753,7 +12578,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>473</v>
+        <v>748</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11800,7 +12625,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>749</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11847,7 +12672,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -11972,7 +12797,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>476</v>
+        <v>751</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12019,7 +12844,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>752</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12066,7 +12891,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>478</v>
+        <v>753</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12113,7 +12938,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>479</v>
+        <v>754</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12160,7 +12985,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>480</v>
+        <v>755</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12279,7 +13104,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>481</v>
+        <v>756</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12320,7 +13145,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>482</v>
+        <v>757</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -12361,7 +13186,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>483</v>
+        <v>758</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -12480,7 +13305,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>759</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12527,7 +13352,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>485</v>
+        <v>760</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12574,7 +13399,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>486</v>
+        <v>761</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12621,7 +13446,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>487</v>
+        <v>762</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12668,7 +13493,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>488</v>
+        <v>763</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12793,7 +13618,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>764</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12840,7 +13665,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>765</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12887,7 +13712,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>491</v>
+        <v>766</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12934,7 +13759,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>492</v>
+        <v>767</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12981,7 +13806,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>493</v>
+        <v>768</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -13106,7 +13931,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>494</v>
+        <v>769</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -13153,7 +13978,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>770</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -13200,7 +14025,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>496</v>
+        <v>771</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -13247,7 +14072,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>497</v>
+        <v>772</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -13294,7 +14119,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>498</v>
+        <v>773</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>

--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5026" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5658" uniqueCount="945">
   <si>
     <t>Result</t>
   </si>
@@ -2416,6 +2416,480 @@
   </si>
   <si>
     <t>Fri Aug 22 18:01:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 09:37:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 09:37:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 09:37:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:16:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:17:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:17:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:17:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:17:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:17:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:18:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:18:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:18:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:18:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:19:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:19:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:20:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:20:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:20:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:20:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:21:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:21:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:21:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:21:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:21:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:21:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:22:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:22:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:22:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:22:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:22:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:22:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:23:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:23:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:23:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:23:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:23:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:23:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:23:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:23:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:24:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:24:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:24:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:24:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:24:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:25:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:25:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:25:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:25:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:26:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:26:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:26:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:26:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:26:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:27:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:27:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:27:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:27:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:28:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:28:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:28:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:28:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:28:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:28:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:28:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:29:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:29:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:29:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:29:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:29:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:30:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:30:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:30:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:30:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:30:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:31:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:31:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:31:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:31:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:31:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:31:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:32:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:32:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:32:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:32:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:32:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:33:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:33:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:33:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:33:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:33:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:34:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:34:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:34:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:34:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:34:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:34:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:34:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:34:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:34:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:35:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:35:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:35:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:35:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:35:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:35:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:35:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:35:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:35:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:35:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:35:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:36:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:36:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:36:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:36:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:36:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:36:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:36:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:36:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:36:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:36:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:37:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:37:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:37:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:37:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:37:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:37:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:37:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:37:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:37:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:37:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:37:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:37:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:38:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:38:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:38:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:38:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:38:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:38:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:38:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:38:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:38:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:38:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:38:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:38:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:38:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:39:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:39:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:50:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:50:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:50:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:50:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:50:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:50:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 13:24:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 13:24:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 13:24:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 13:24:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 13:25:01 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -2873,7 +3347,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>730</v>
+        <v>940</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2920,7 +3394,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>731</v>
+        <v>941</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2967,7 +3441,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>732</v>
+        <v>942</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -3011,10 +3485,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>733</v>
+        <v>943</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -3061,7 +3535,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>734</v>
+        <v>944</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -3190,7 +3664,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>774</v>
+        <v>834</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -3237,7 +3711,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>775</v>
+        <v>835</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -3284,7 +3758,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>776</v>
+        <v>836</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -3328,10 +3802,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>777</v>
+        <v>837</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -3378,7 +3852,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>778</v>
+        <v>838</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -3503,7 +3977,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>779</v>
+        <v>839</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -3550,7 +4024,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -3597,7 +4071,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>781</v>
+        <v>841</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -3641,10 +4115,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>782</v>
+        <v>842</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -3691,7 +4165,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>783</v>
+        <v>843</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -3818,7 +4292,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>784</v>
+        <v>844</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -3862,10 +4336,10 @@
     </row>
     <row ht="30" r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>785</v>
+        <v>845</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -3912,7 +4386,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>786</v>
+        <v>846</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -4146,7 +4620,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>569</v>
+        <v>847</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -4266,7 +4740,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>570</v>
+        <v>848</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -4386,7 +4860,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>571</v>
+        <v>849</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -4506,7 +4980,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>572</v>
+        <v>850</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -4626,7 +5100,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>573</v>
+        <v>851</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -4746,7 +5220,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>574</v>
+        <v>852</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -4866,7 +5340,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>575</v>
+        <v>853</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -4987,7 +5461,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>576</v>
+        <v>854</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -5108,7 +5582,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>577</v>
+        <v>855</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -5229,7 +5703,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>578</v>
+        <v>856</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -5349,7 +5823,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>579</v>
+        <v>857</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -5469,7 +5943,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>580</v>
+        <v>858</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -5589,7 +6063,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>581</v>
+        <v>859</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -5709,7 +6183,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>582</v>
+        <v>860</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -5829,7 +6303,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>583</v>
+        <v>861</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -5949,7 +6423,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>584</v>
+        <v>862</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -6069,7 +6543,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>585</v>
+        <v>863</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -6189,7 +6663,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>586</v>
+        <v>864</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -6309,7 +6783,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>587</v>
+        <v>865</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -6429,7 +6903,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>588</v>
+        <v>866</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -6549,7 +7023,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>589</v>
+        <v>867</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -6669,7 +7143,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>590</v>
+        <v>868</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
@@ -6789,7 +7263,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>591</v>
+        <v>869</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -6909,7 +7383,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>592</v>
+        <v>870</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -7029,7 +7503,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>593</v>
+        <v>871</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
@@ -7149,7 +7623,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>594</v>
+        <v>872</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -7269,7 +7743,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>595</v>
+        <v>873</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -7389,7 +7863,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>596</v>
+        <v>874</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -7509,7 +7983,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>597</v>
+        <v>875</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -7629,7 +8103,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>598</v>
+        <v>876</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
@@ -7749,7 +8223,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>599</v>
+        <v>877</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
@@ -7869,7 +8343,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>600</v>
+        <v>878</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
@@ -8092,7 +8566,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>601</v>
+        <v>879</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -8157,7 +8631,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>602</v>
+        <v>880</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -8222,7 +8696,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>603</v>
+        <v>881</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -8287,7 +8761,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>604</v>
+        <v>882</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -8352,7 +8826,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>605</v>
+        <v>883</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -8417,7 +8891,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>606</v>
+        <v>884</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -8482,7 +8956,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>607</v>
+        <v>885</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -8548,7 +9022,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>608</v>
+        <v>886</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -8614,7 +9088,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>609</v>
+        <v>887</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -8680,7 +9154,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>610</v>
+        <v>888</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -8745,7 +9219,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>611</v>
+        <v>889</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -8810,7 +9284,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>612</v>
+        <v>890</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -8875,7 +9349,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>613</v>
+        <v>891</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -8940,7 +9414,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>614</v>
+        <v>892</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -9005,7 +9479,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>615</v>
+        <v>893</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -9067,10 +9541,10 @@
     </row>
     <row customFormat="1" ht="30" r="17" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>616</v>
+        <v>894</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -9135,7 +9609,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>617</v>
+        <v>895</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -9200,7 +9674,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>618</v>
+        <v>896</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -9262,10 +9736,10 @@
     </row>
     <row customFormat="1" ht="30" r="20" s="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>619</v>
+        <v>897</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -9330,7 +9804,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>620</v>
+        <v>898</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -9395,7 +9869,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>621</v>
+        <v>899</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -9460,7 +9934,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>622</v>
+        <v>900</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
@@ -9525,7 +9999,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>623</v>
+        <v>901</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -9590,7 +10064,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>624</v>
+        <v>902</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -9655,7 +10129,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>625</v>
+        <v>903</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
@@ -9720,7 +10194,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>626</v>
+        <v>904</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -9785,7 +10259,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>627</v>
+        <v>905</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -9850,7 +10324,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>628</v>
+        <v>906</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -9915,7 +10389,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>629</v>
+        <v>907</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -9980,7 +10454,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>630</v>
+        <v>908</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
@@ -10045,7 +10519,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>631</v>
+        <v>909</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
@@ -10110,7 +10584,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>632</v>
+        <v>910</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
@@ -10245,10 +10719,10 @@
     </row>
     <row customFormat="1" ht="30" r="2" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>633</v>
+        <v>911</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -10286,7 +10760,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>634</v>
+        <v>912</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -10324,7 +10798,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>635</v>
+        <v>913</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -10363,7 +10837,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>636</v>
+        <v>914</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -10398,10 +10872,10 @@
     </row>
     <row customFormat="1" r="6" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>637</v>
+        <v>915</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -10439,7 +10913,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>638</v>
+        <v>916</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -10477,7 +10951,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>639</v>
+        <v>917</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -10515,7 +10989,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>640</v>
+        <v>918</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -10620,10 +11094,10 @@
     </row>
     <row customFormat="1" ht="30" r="2" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>641</v>
+        <v>919</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -10655,10 +11129,10 @@
     </row>
     <row customFormat="1" ht="30" r="3" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>642</v>
+        <v>920</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -10690,10 +11164,10 @@
     </row>
     <row customFormat="1" ht="30" r="4" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>643</v>
+        <v>921</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -10729,7 +11203,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>644</v>
+        <v>922</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -10764,7 +11238,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>645</v>
+        <v>923</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -10796,10 +11270,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>646</v>
+        <v>924</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -10834,7 +11308,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>647</v>
+        <v>925</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -10939,10 +11413,10 @@
     </row>
     <row customFormat="1" ht="30" r="2" s="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>648</v>
+        <v>926</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -10980,7 +11454,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>649</v>
+        <v>927</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -11018,7 +11492,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>650</v>
+        <v>928</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -11057,7 +11531,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>651</v>
+        <v>929</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -11095,7 +11569,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>652</v>
+        <v>930</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -11130,10 +11604,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>653</v>
+        <v>931</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -11171,7 +11645,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>654</v>
+        <v>932</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -11209,7 +11683,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>655</v>
+        <v>933</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -11328,7 +11802,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>659</v>
+        <v>937</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>129</v>
@@ -11366,7 +11840,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>660</v>
+        <v>938</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>129</v>
@@ -11404,7 +11878,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>661</v>
+        <v>939</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>129</v>
@@ -11517,10 +11991,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>656</v>
+        <v>934</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>129</v>
@@ -11558,7 +12032,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>657</v>
+        <v>935</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>129</v>
@@ -11596,7 +12070,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>658</v>
+        <v>936</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>129</v>
@@ -11712,7 +12186,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>735</v>
+        <v>795</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -11759,7 +12233,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>736</v>
+        <v>796</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -11806,7 +12280,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>737</v>
+        <v>797</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -11850,10 +12324,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>738</v>
+        <v>798</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -11900,7 +12374,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>739</v>
+        <v>799</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12124,7 +12598,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>740</v>
+        <v>800</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12171,7 +12645,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>741</v>
+        <v>801</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12218,7 +12692,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>742</v>
+        <v>802</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12262,10 +12736,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>743</v>
+        <v>803</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12312,7 +12786,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>744</v>
+        <v>804</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12356,10 +12830,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>745</v>
+        <v>805</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>276</v>
@@ -12484,7 +12958,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>746</v>
+        <v>806</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12531,7 +13005,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>747</v>
+        <v>807</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12578,7 +13052,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>748</v>
+        <v>808</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12622,10 +13096,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12672,7 +13146,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>750</v>
+        <v>810</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12797,7 +13271,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>751</v>
+        <v>811</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12844,7 +13318,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>752</v>
+        <v>812</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12891,7 +13365,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>753</v>
+        <v>813</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12935,10 +13409,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>754</v>
+        <v>814</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12985,7 +13459,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>755</v>
+        <v>815</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -13104,7 +13578,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>756</v>
+        <v>816</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -13142,10 +13616,10 @@
     </row>
     <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>757</v>
+        <v>817</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -13186,7 +13660,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>758</v>
+        <v>818</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -13305,7 +13779,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>759</v>
+        <v>819</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -13352,7 +13826,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>760</v>
+        <v>820</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -13399,7 +13873,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>761</v>
+        <v>821</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -13446,7 +13920,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>762</v>
+        <v>822</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -13493,7 +13967,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>763</v>
+        <v>823</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -13618,7 +14092,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>764</v>
+        <v>824</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -13665,7 +14139,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>765</v>
+        <v>825</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -13712,7 +14186,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>766</v>
+        <v>826</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -13756,10 +14230,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>767</v>
+        <v>827</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -13806,7 +14280,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>768</v>
+        <v>828</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -13931,7 +14405,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>769</v>
+        <v>829</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -13978,7 +14452,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>770</v>
+        <v>830</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -14025,7 +14499,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>771</v>
+        <v>831</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -14069,10 +14543,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>772</v>
+        <v>832</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -14119,7 +14593,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>773</v>
+        <v>833</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>

--- a/KatalonData/VLinkSmokeData.xlsx
+++ b/KatalonData/VLinkSmokeData.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5658" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6510" uniqueCount="1158">
   <si>
     <t>Result</t>
   </si>
@@ -2890,6 +2890,645 @@
   </si>
   <si>
     <t>Fri Aug 29 13:25:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:39:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:39:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:40:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:40:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:40:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:40:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:40:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:41:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:41:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:41:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:43:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:43:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:43:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:43:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:43:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:44:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:44:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:44:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:44:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:44:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:45:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:45:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:45:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:45:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:45:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:46:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:46:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:46:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:46:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:46:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:46:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:47:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:47:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:47:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:47:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:47:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:47:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:48:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:48:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:48:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:48:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:48:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:49:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:49:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:49:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:50:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:50:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:50:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:50:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:51:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:51:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:51:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:52:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:52:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:52:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:52:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:52:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:52:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:53:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:53:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:53:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:53:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:53:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:54:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:54:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:54:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:54:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:55:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:55:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:55:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:55:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:56:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:56:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:56:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:56:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:56:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:57:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:57:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:57:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:57:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:58:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:58:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:58:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:58:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:59:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:59:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:59:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 11:59:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:00:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:00:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:00:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:00:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:00:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:00:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:00:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:00:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:01:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:01:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:01:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:01:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:01:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:01:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:01:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:01:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:01:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:01:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:02:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:02:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:02:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:02:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:02:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:02:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:02:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:02:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:02:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:03:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:03:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:03:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:03:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:03:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:03:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:03:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:03:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:03:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:03:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:04:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:04:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:04:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:04:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:04:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:04:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:04:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:04:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:04:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:04:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:04:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:05:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:05:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:05:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:05:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:05:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:05:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:05:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:05:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:19:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:19:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:19:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:19:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:19:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:19:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 10:56:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 10:57:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 10:57:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 10:57:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 10:57:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 10:58:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:40:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:40:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:40:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:40:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:40:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:41:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:41:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:41:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:41:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:42:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:42:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:42:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:42:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:42:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:42:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:42:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:43:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:43:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:43:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:43:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:44:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:44:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:44:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:44:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:44:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:45:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:45:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:45:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:45:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:45:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:46:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:46:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:46:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:46:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:46:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:46:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:47:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:47:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:47:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:47:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:48:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:48:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:48:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:49:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:49:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:49:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:50:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:50:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:50:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:51:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:51:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:51:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:52:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:52:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:52:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:52:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:53:00 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -3347,7 +3986,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>940</v>
+        <v>1101</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -3394,7 +4033,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>941</v>
+        <v>1102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -3441,7 +4080,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>942</v>
+        <v>1103</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -3485,10 +4124,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>943</v>
+        <v>1104</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -3535,7 +4174,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>944</v>
+        <v>1105</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -3664,7 +4303,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>834</v>
+        <v>1145</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -3711,7 +4350,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>835</v>
+        <v>1146</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -3758,7 +4397,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>836</v>
+        <v>1147</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -3802,10 +4441,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>837</v>
+        <v>1148</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -3852,7 +4491,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>838</v>
+        <v>1149</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -3977,7 +4616,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>839</v>
+        <v>1150</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -4024,7 +4663,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>840</v>
+        <v>1151</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -4071,7 +4710,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>841</v>
+        <v>1152</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -4115,10 +4754,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>842</v>
+        <v>1153</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -4165,7 +4804,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>843</v>
+        <v>1154</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -4292,7 +4931,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>844</v>
+        <v>1155</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -4336,10 +4975,10 @@
     </row>
     <row ht="30" r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>845</v>
+        <v>1156</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -4386,7 +5025,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>846</v>
+        <v>1157</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -4620,7 +5259,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>847</v>
+        <v>1002</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -4740,7 +5379,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>848</v>
+        <v>1003</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -4860,7 +5499,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>849</v>
+        <v>1004</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -4980,7 +5619,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>850</v>
+        <v>1005</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -5100,7 +5739,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>851</v>
+        <v>1006</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -5220,7 +5859,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>852</v>
+        <v>1007</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -5340,7 +5979,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>853</v>
+        <v>1008</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -5461,7 +6100,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>854</v>
+        <v>1009</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -5582,7 +6221,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>855</v>
+        <v>1010</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -5703,7 +6342,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>856</v>
+        <v>1011</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -5823,7 +6462,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>857</v>
+        <v>1012</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -5943,7 +6582,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>858</v>
+        <v>1013</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -6063,7 +6702,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>859</v>
+        <v>1014</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -6183,7 +6822,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>860</v>
+        <v>1015</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -6303,7 +6942,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>861</v>
+        <v>1016</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -6423,7 +7062,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>862</v>
+        <v>1017</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -6543,7 +7182,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>863</v>
+        <v>1018</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -6663,7 +7302,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>864</v>
+        <v>1019</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -6783,7 +7422,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>865</v>
+        <v>1020</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -6903,7 +7542,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>866</v>
+        <v>1021</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -7023,7 +7662,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>867</v>
+        <v>1022</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -7143,7 +7782,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>868</v>
+        <v>1023</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
@@ -7263,7 +7902,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>869</v>
+        <v>1024</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -7383,7 +8022,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>870</v>
+        <v>1025</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -7503,7 +8142,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>871</v>
+        <v>1026</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
@@ -7623,7 +8262,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>872</v>
+        <v>1027</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -7743,7 +8382,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>873</v>
+        <v>1028</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -7863,7 +8502,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>874</v>
+        <v>1029</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -7983,7 +8622,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>875</v>
+        <v>1030</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -8103,7 +8742,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>876</v>
+        <v>1031</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
@@ -8223,7 +8862,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>877</v>
+        <v>1032</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
@@ -8343,7 +8982,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>878</v>
+        <v>1033</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
@@ -8566,7 +9205,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>879</v>
+        <v>1034</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -8631,7 +9270,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>880</v>
+        <v>1035</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -8696,7 +9335,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>881</v>
+        <v>1036</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -8761,7 +9400,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>882</v>
+        <v>1037</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -8826,7 +9465,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>883</v>
+        <v>1038</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -8891,7 +9530,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>884</v>
+        <v>1039</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -8956,7 +9595,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>885</v>
+        <v>1040</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -9022,7 +9661,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>886</v>
+        <v>1041</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -9088,7 +9727,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>887</v>
+        <v>1042</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -9154,7 +9793,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>888</v>
+        <v>1043</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -9219,7 +9858,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>889</v>
+        <v>1044</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -9284,7 +9923,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>890</v>
+        <v>1045</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -9349,7 +9988,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>891</v>
+        <v>1046</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -9414,7 +10053,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>892</v>
+        <v>1047</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -9479,7 +10118,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>893</v>
+        <v>1048</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -9544,7 +10183,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>894</v>
+        <v>1049</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -9609,7 +10248,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>895</v>
+        <v>1050</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -9674,7 +10313,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>896</v>
+        <v>1051</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -9739,7 +10378,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>897</v>
+        <v>1052</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -9804,7 +10443,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>898</v>
+        <v>1053</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -9869,7 +10508,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>899</v>
+        <v>1054</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -9934,7 +10573,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>900</v>
+        <v>1055</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
@@ -9999,7 +10638,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>901</v>
+        <v>1056</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -10064,7 +10703,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>902</v>
+        <v>1057</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -10129,7 +10768,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>903</v>
+        <v>1058</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
@@ -10194,7 +10833,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>904</v>
+        <v>1059</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -10259,7 +10898,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>905</v>
+        <v>1060</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -10324,7 +10963,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>906</v>
+        <v>1061</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -10389,7 +11028,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>907</v>
+        <v>1062</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -10454,7 +11093,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>908</v>
+        <v>1063</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
@@ -10519,7 +11158,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>909</v>
+        <v>1064</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
@@ -10584,7 +11223,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>910</v>
+        <v>1065</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
@@ -10722,7 +11361,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>911</v>
+        <v>1066</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -10760,7 +11399,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>912</v>
+        <v>1067</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -10798,7 +11437,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>913</v>
+        <v>1068</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -10837,7 +11476,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>914</v>
+        <v>1069</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -10875,7 +11514,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>915</v>
+        <v>1070</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -10913,7 +11552,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>916</v>
+        <v>1071</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -10951,7 +11590,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>917</v>
+        <v>1072</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -10989,7 +11628,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>918</v>
+        <v>1073</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -11097,7 +11736,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>919</v>
+        <v>1074</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -11132,7 +11771,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>920</v>
+        <v>1075</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -11167,7 +11806,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>921</v>
+        <v>1076</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -11203,7 +11842,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>922</v>
+        <v>1077</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -11238,7 +11877,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>923</v>
+        <v>1078</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -11273,7 +11912,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>924</v>
+        <v>1079</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -11308,7 +11947,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>925</v>
+        <v>1080</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -11416,7 +12055,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>926</v>
+        <v>1081</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -11454,7 +12093,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>927</v>
+        <v>1082</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -11492,7 +12131,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>928</v>
+        <v>1083</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -11531,7 +12170,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>929</v>
+        <v>1084</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -11569,7 +12208,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>930</v>
+        <v>1085</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -11607,7 +12246,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>931</v>
+        <v>1086</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -11645,7 +12284,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>932</v>
+        <v>1087</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -11683,7 +12322,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>933</v>
+        <v>1088</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -11802,7 +12441,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>937</v>
+        <v>1092</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>129</v>
@@ -11840,7 +12479,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>938</v>
+        <v>1093</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>129</v>
@@ -11878,7 +12517,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>939</v>
+        <v>1094</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>129</v>
@@ -11994,7 +12633,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>934</v>
+        <v>1089</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>129</v>
@@ -12032,7 +12671,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>935</v>
+        <v>1090</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>129</v>
@@ -12070,7 +12709,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>936</v>
+        <v>1091</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>129</v>
@@ -12186,7 +12825,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>795</v>
+        <v>1106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12233,7 +12872,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>796</v>
+        <v>1107</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12280,7 +12919,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>797</v>
+        <v>1108</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12324,10 +12963,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>798</v>
+        <v>1109</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12374,7 +13013,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>799</v>
+        <v>1110</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12598,7 +13237,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -12645,7 +13284,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>801</v>
+        <v>1112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -12692,7 +13331,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>802</v>
+        <v>1113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -12736,10 +13375,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>803</v>
+        <v>1114</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -12786,7 +13425,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>804</v>
+        <v>1115</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -12830,10 +13469,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>805</v>
+        <v>1116</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>276</v>
@@ -12958,7 +13597,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>806</v>
+        <v>1117</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -13005,7 +13644,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>807</v>
+        <v>1118</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -13052,7 +13691,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>808</v>
+        <v>1119</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -13096,10 +13735,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>809</v>
+        <v>1120</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -13146,7 +13785,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>810</v>
+        <v>1121</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -13271,7 +13910,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>811</v>
+        <v>1122</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -13318,7 +13957,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>812</v>
+        <v>1123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -13365,7 +14004,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>813</v>
+        <v>1124</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -13409,10 +14048,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>814</v>
+        <v>1125</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -13459,7 +14098,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>815</v>
+        <v>1126</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -13578,7 +14217,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>816</v>
+        <v>1127</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -13616,10 +14255,10 @@
     </row>
     <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>817</v>
+        <v>1128</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -13660,7 +14299,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>818</v>
+        <v>1129</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -13779,7 +14418,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>819</v>
+        <v>1130</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -13826,7 +14465,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>820</v>
+        <v>1131</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -13873,7 +14512,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>821</v>
+        <v>1132</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -13920,7 +14559,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>822</v>
+        <v>1133</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -13967,7 +14606,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>823</v>
+        <v>1134</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -14092,7 +14731,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>824</v>
+        <v>1135</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -14139,7 +14778,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>825</v>
+        <v>1136</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -14186,7 +14825,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>826</v>
+        <v>1137</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -14230,10 +14869,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>827</v>
+        <v>1138</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -14280,7 +14919,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>828</v>
+        <v>1139</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -14405,7 +15044,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>829</v>
+        <v>1140</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -14452,7 +15091,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>830</v>
+        <v>1141</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -14499,7 +15138,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>831</v>
+        <v>1142</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -14543,10 +15182,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>832</v>
+        <v>1143</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -14593,7 +15232,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>833</v>
+        <v>1144</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
